--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="01.TaxiNetHome" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="04.DriverInfo-Def" sheetId="30" r:id="rId7"/>
     <sheet name="05.NewCompany" sheetId="29" r:id="rId8"/>
     <sheet name="05.NewCompany-Def" sheetId="18" r:id="rId9"/>
+    <sheet name="06.CompanyInfo" sheetId="31" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
   <si>
     <t>Logo</t>
   </si>
@@ -470,15 +471,6 @@
     <t>Tài Liệu Cần Thiết</t>
   </si>
   <si>
-    <t>Giấy Phép Lái Xe:</t>
-  </si>
-  <si>
-    <t>Giấy tờ chứng minh kinh nghiệm:</t>
-  </si>
-  <si>
-    <t>Chưa Gửi/Chưa Kiểm Tra</t>
-  </si>
-  <si>
     <t>Nguyễn Thành Hưng</t>
   </si>
   <si>
@@ -488,9 +480,6 @@
     <t>20-01-2015</t>
   </si>
   <si>
-    <t>Xem</t>
-  </si>
-  <si>
     <t>NewDriver</t>
   </si>
   <si>
@@ -507,13 +496,95 @@
   </si>
   <si>
     <t>WTS05</t>
+  </si>
+  <si>
+    <t>Tên Công Ty</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>35A, Nguyễn Trí Thanh</t>
+  </si>
+  <si>
+    <t>Xem Tài Liệu</t>
+  </si>
+  <si>
+    <t>Business Registration Certificate for service of passenger transportation by car (Giấy phép kinh doanh có ngành vận tải hành khách)</t>
+  </si>
+  <si>
+    <t>Trạng Thái :</t>
+  </si>
+  <si>
+    <t>Tệp (FILE):</t>
+  </si>
+  <si>
+    <t>Operating License (Giấy phép kinh doanh vận tải bằng xe oto)</t>
+  </si>
+  <si>
+    <t>Exec Qualifications (3 years experience)</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>Chưa gửi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chưa gửi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng Thái : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gửi</t>
+    </r>
+  </si>
+  <si>
+    <t>Đã kiểm tra</t>
+  </si>
+  <si>
+    <t>Tệp (FILE): ID200222.pdf</t>
+  </si>
+  <si>
+    <t>download icon</t>
+  </si>
+  <si>
+    <t>DOCUMENTS</t>
+  </si>
+  <si>
+    <t>B2 Driver's License  (Bằng Lái B2)</t>
+  </si>
+  <si>
+    <t>Tệp (FILE): ID0202022.pdf</t>
+  </si>
+  <si>
+    <t>Trạng Thái : Đã gửi</t>
+  </si>
+  <si>
+    <t>Tệp (FILE): ….</t>
+  </si>
+  <si>
+    <t>Đã Kiểm Tra</t>
+  </si>
+  <si>
+    <t>Ngày Hết Hạn: 10-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +718,14 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1175,7 +1254,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,29 +1465,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,14 +1492,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,42 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,6 +1523,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,6 +1615,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,156 +1971,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134350" y="1371599"/>
-          <a:ext cx="1666875" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sửa Thông Tin</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Flowchart: Process 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8258175" y="3438525"/>
-          <a:ext cx="1419225" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Cập Nhật Ảnh</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2015,7 +1989,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400551" y="7562850"/>
+          <a:off x="4295776" y="7677150"/>
           <a:ext cx="1447800" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2067,16 +2041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2085,7 +2059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6124575" y="7562849"/>
+          <a:off x="6057900" y="7686674"/>
           <a:ext cx="1743075" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2137,16 +2111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2155,7 +2129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705101" y="7572375"/>
+          <a:off x="2581276" y="7677150"/>
           <a:ext cx="1428750" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -2268,7 +2242,222 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Lọc Lái Xe</a:t>
+            <a:t>Lọc Công Ty</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343401" y="7258050"/>
+          <a:ext cx="1447800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chấp Thuận</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Process 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="7258049"/>
+          <a:ext cx="1743075" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Gửi Email</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638426" y="7267575"/>
+          <a:ext cx="1428750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Quay Lại</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -2593,22 +2782,22 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -3864,6 +4053,2318 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AS54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="6"/>
+    <col min="2" max="2" width="1.7109375" style="6" customWidth="1"/>
+    <col min="3" max="18" width="3.7109375" style="6"/>
+    <col min="19" max="19" width="4.28515625" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="3.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="12"/>
+    </row>
+    <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12"/>
+    </row>
+    <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12"/>
+    </row>
+    <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="12"/>
+    </row>
+    <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
+      <c r="C5" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
+      <c r="AF5" s="128"/>
+      <c r="AG5" s="128"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="128"/>
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="128"/>
+      <c r="AL5" s="128"/>
+      <c r="AM5" s="128"/>
+      <c r="AN5" s="128"/>
+      <c r="AO5" s="129"/>
+    </row>
+    <row r="6" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="130"/>
+      <c r="C6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="12"/>
+    </row>
+    <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="12"/>
+    </row>
+    <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="133"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="12"/>
+    </row>
+    <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="134" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="12"/>
+    </row>
+    <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="51"/>
+      <c r="AF10" s="51"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="12"/>
+    </row>
+    <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="50"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="51"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="12"/>
+    </row>
+    <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="50"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="12"/>
+    </row>
+    <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="134" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="12"/>
+    </row>
+    <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="12"/>
+    </row>
+    <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="12"/>
+    </row>
+    <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="12"/>
+    </row>
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="134" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="139" t="s">
+        <v>138</v>
+      </c>
+      <c r="R17" s="51"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="12"/>
+    </row>
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="12"/>
+    </row>
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="12"/>
+    </row>
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="12"/>
+    </row>
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="140"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="12"/>
+    </row>
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50"/>
+      <c r="C22" s="195" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="12"/>
+    </row>
+    <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="196" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="198" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" s="198"/>
+      <c r="N23" s="198"/>
+      <c r="O23" s="198"/>
+      <c r="P23" s="198"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="198"/>
+      <c r="S23" s="198"/>
+      <c r="T23" s="198"/>
+      <c r="U23" s="198"/>
+      <c r="V23" s="198"/>
+      <c r="W23" s="198"/>
+      <c r="X23" s="198"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="198"/>
+      <c r="AB23" s="198"/>
+      <c r="AC23" s="198"/>
+      <c r="AD23" s="198"/>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="198"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="198"/>
+      <c r="AI23" s="198"/>
+      <c r="AJ23" s="198"/>
+      <c r="AK23" s="198"/>
+      <c r="AL23" s="198"/>
+      <c r="AM23" s="198"/>
+      <c r="AN23" s="198"/>
+      <c r="AO23" s="12"/>
+    </row>
+    <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="50"/>
+      <c r="C24" s="196" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="199" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="200"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="212" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="208"/>
+      <c r="R24" s="208"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200" t="s">
+        <v>155</v>
+      </c>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y24" s="200"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="200" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH24" s="202"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="203"/>
+      <c r="AL24" s="203"/>
+      <c r="AM24" s="203"/>
+      <c r="AN24" s="219"/>
+      <c r="AO24" s="12"/>
+    </row>
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="204"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+      <c r="U25" s="206"/>
+      <c r="V25" s="206"/>
+      <c r="W25" s="206"/>
+      <c r="X25" s="206"/>
+      <c r="Y25" s="206"/>
+      <c r="Z25" s="206"/>
+      <c r="AA25" s="206"/>
+      <c r="AB25" s="206"/>
+      <c r="AC25" s="206"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="118"/>
+      <c r="AJ25" s="205"/>
+      <c r="AK25" s="118"/>
+      <c r="AL25" s="118"/>
+      <c r="AM25" s="118"/>
+      <c r="AN25" s="141"/>
+      <c r="AO25" s="12"/>
+    </row>
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="50"/>
+      <c r="C26" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="12"/>
+    </row>
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="50"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="208"/>
+      <c r="R27" s="208"/>
+      <c r="S27" s="208"/>
+      <c r="T27" s="208"/>
+      <c r="U27" s="208"/>
+      <c r="V27" s="208"/>
+      <c r="W27" s="208"/>
+      <c r="X27" s="208"/>
+      <c r="Y27" s="208"/>
+      <c r="Z27" s="208"/>
+      <c r="AA27" s="208"/>
+      <c r="AB27" s="208"/>
+      <c r="AC27" s="208"/>
+      <c r="AD27" s="208"/>
+      <c r="AE27" s="208"/>
+      <c r="AF27" s="208"/>
+      <c r="AG27" s="208"/>
+      <c r="AH27" s="208"/>
+      <c r="AI27" s="208"/>
+      <c r="AJ27" s="208"/>
+      <c r="AK27" s="208"/>
+      <c r="AL27" s="208"/>
+      <c r="AM27" s="208"/>
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="12"/>
+    </row>
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="50"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="210"/>
+      <c r="O28" s="210"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="218"/>
+      <c r="AO28" s="12"/>
+    </row>
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="50"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="204"/>
+      <c r="M29" s="205"/>
+      <c r="N29" s="206"/>
+      <c r="O29" s="206"/>
+      <c r="P29" s="206"/>
+      <c r="Q29" s="206"/>
+      <c r="R29" s="206"/>
+      <c r="S29" s="206"/>
+      <c r="T29" s="206"/>
+      <c r="U29" s="206"/>
+      <c r="V29" s="206"/>
+      <c r="W29" s="206"/>
+      <c r="X29" s="206"/>
+      <c r="Y29" s="206"/>
+      <c r="Z29" s="206"/>
+      <c r="AA29" s="206"/>
+      <c r="AB29" s="206"/>
+      <c r="AC29" s="206"/>
+      <c r="AD29" s="118"/>
+      <c r="AE29" s="118"/>
+      <c r="AF29" s="118"/>
+      <c r="AG29" s="118"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="118"/>
+      <c r="AJ29" s="205"/>
+      <c r="AK29" s="118"/>
+      <c r="AL29" s="118"/>
+      <c r="AM29" s="118"/>
+      <c r="AN29" s="141"/>
+      <c r="AO29" s="12"/>
+    </row>
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="50"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="12"/>
+    </row>
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="50"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="51"/>
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="51"/>
+      <c r="AK31" s="51"/>
+      <c r="AL31" s="51"/>
+      <c r="AM31" s="51"/>
+      <c r="AN31" s="51"/>
+      <c r="AO31" s="12"/>
+    </row>
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="50"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="12"/>
+    </row>
+    <row r="33" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="121"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="12"/>
+    </row>
+    <row r="34" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="50"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="134"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="147"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="12"/>
+    </row>
+    <row r="35" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="134"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="12"/>
+    </row>
+    <row r="36" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="50"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="134"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="12"/>
+    </row>
+    <row r="37" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="54"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="53"/>
+    </row>
+    <row r="38" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="12"/>
+    </row>
+    <row r="39" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="24"/>
+      <c r="AF39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="24"/>
+      <c r="AK39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="12"/>
+    </row>
+    <row r="40" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="16"/>
+    </row>
+    <row r="43" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="95"/>
+      <c r="AF43" s="95"/>
+      <c r="AG43" s="95"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="95"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="95"/>
+      <c r="AO43" s="95"/>
+      <c r="AP43" s="95"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="51"/>
+    </row>
+    <row r="44" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="102">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
+      <c r="AI44" s="97"/>
+      <c r="AJ44" s="97"/>
+      <c r="AK44" s="97"/>
+      <c r="AL44" s="97"/>
+      <c r="AM44" s="97"/>
+      <c r="AN44" s="97"/>
+      <c r="AO44" s="97"/>
+      <c r="AP44" s="97"/>
+      <c r="AQ44" s="97"/>
+      <c r="AR44" s="98"/>
+      <c r="AS44" s="51"/>
+    </row>
+    <row r="45" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="103"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="99"/>
+      <c r="AS45" s="28"/>
+    </row>
+    <row r="46" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="104"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
+      <c r="AM46" s="30"/>
+      <c r="AN46" s="30"/>
+      <c r="AO46" s="30"/>
+      <c r="AP46" s="30"/>
+      <c r="AQ46" s="30"/>
+      <c r="AR46" s="99"/>
+      <c r="AS46" s="28"/>
+    </row>
+    <row r="47" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="105"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="28"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
+      <c r="AM47" s="30"/>
+      <c r="AN47" s="30"/>
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="30"/>
+      <c r="AQ47" s="30"/>
+      <c r="AR47" s="99"/>
+      <c r="AS47" s="28"/>
+    </row>
+    <row r="48" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="105"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
+      <c r="AM48" s="30"/>
+      <c r="AN48" s="30"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="30"/>
+      <c r="AQ48" s="30"/>
+      <c r="AR48" s="99"/>
+      <c r="AS48" s="28"/>
+    </row>
+    <row r="49" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="105"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
+      <c r="AM49" s="30"/>
+      <c r="AN49" s="30"/>
+      <c r="AO49" s="30"/>
+      <c r="AP49" s="30"/>
+      <c r="AQ49" s="30"/>
+      <c r="AR49" s="99"/>
+      <c r="AS49" s="28"/>
+    </row>
+    <row r="50" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="105"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="95"/>
+      <c r="AH50" s="95"/>
+      <c r="AI50" s="95"/>
+      <c r="AJ50" s="95"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="30"/>
+      <c r="AM50" s="95"/>
+      <c r="AN50" s="95"/>
+      <c r="AO50" s="95"/>
+      <c r="AP50" s="51"/>
+      <c r="AQ50" s="30"/>
+      <c r="AR50" s="99"/>
+      <c r="AS50" s="28"/>
+    </row>
+    <row r="51" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="105"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30"/>
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="99"/>
+      <c r="AS51" s="28"/>
+    </row>
+    <row r="52" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="105"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="28"/>
+      <c r="AH52" s="28"/>
+      <c r="AI52" s="28"/>
+      <c r="AJ52" s="28"/>
+      <c r="AK52" s="28"/>
+      <c r="AL52" s="28"/>
+      <c r="AM52" s="28"/>
+      <c r="AN52" s="28"/>
+      <c r="AO52" s="28"/>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="28"/>
+      <c r="AR52" s="99"/>
+      <c r="AS52" s="51"/>
+    </row>
+    <row r="53" spans="2:45" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="106"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="100"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="100"/>
+      <c r="Y53" s="100"/>
+      <c r="Z53" s="100"/>
+      <c r="AA53" s="100"/>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="100"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="100"/>
+      <c r="AH53" s="100"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
+      <c r="AL53" s="100"/>
+      <c r="AM53" s="100"/>
+      <c r="AN53" s="100"/>
+      <c r="AO53" s="100"/>
+      <c r="AP53" s="100"/>
+      <c r="AQ53" s="100"/>
+      <c r="AR53" s="101"/>
+    </row>
+    <row r="54" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="L23:AN23"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
+      <formula1>"7,30,365"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24 N28:O28">
+      <formula1>"10,20,30"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO26"/>
@@ -3878,14 +6379,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -3922,12 +6423,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -3964,12 +6465,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="158"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -4006,12 +6507,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -4041,19 +6542,19 @@
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="149"/>
-      <c r="AN4" s="149"/>
+      <c r="AK4" s="150"/>
+      <c r="AL4" s="150"/>
+      <c r="AM4" s="150"/>
+      <c r="AN4" s="150"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="161"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -4300,24 +6801,24 @@
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
-      <c r="N11" s="150" t="s">
+      <c r="N11" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="152"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="158"/>
+      <c r="AB11" s="158"/>
+      <c r="AC11" s="159"/>
       <c r="AD11" s="51"/>
       <c r="AE11" s="51"/>
       <c r="AF11" s="51"/>
@@ -4414,24 +6915,24 @@
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
-      <c r="N14" s="150" t="s">
+      <c r="N14" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="152"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="158"/>
+      <c r="R14" s="158"/>
+      <c r="S14" s="158"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="158"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="158"/>
+      <c r="AB14" s="158"/>
+      <c r="AC14" s="159"/>
       <c r="AD14" s="51"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
@@ -4979,15 +7480,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -4995,7 +7496,7 @@
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -5423,14 +7924,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="181"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="164"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -5476,12 +7977,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -5518,22 +8019,22 @@
       </c>
       <c r="AN2" s="11"/>
       <c r="AO2" s="11"/>
-      <c r="AP2" s="168" t="s">
+      <c r="AP2" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="169"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
     </row>
     <row r="3" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="158"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5567,20 +8068,20 @@
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="169"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="181"/>
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
@@ -5615,12 +8116,12 @@
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
       <c r="AO4" s="15"/>
-      <c r="AP4" s="170"/>
-      <c r="AQ4" s="170"/>
-      <c r="AR4" s="170"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="170"/>
-      <c r="AU4" s="171"/>
+      <c r="AP4" s="182"/>
+      <c r="AQ4" s="182"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="182"/>
+      <c r="AT4" s="182"/>
+      <c r="AU4" s="183"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
@@ -5635,52 +8136,52 @@
       <c r="G5" s="178"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179"/>
-      <c r="J5" s="172" t="s">
+      <c r="J5" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="172" t="s">
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="172" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="172" t="s">
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="175"/>
+      <c r="AR5" s="175"/>
+      <c r="AS5" s="175"/>
+      <c r="AT5" s="175"/>
+      <c r="AU5" s="184"/>
     </row>
     <row r="6" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
@@ -5742,46 +8243,46 @@
       <c r="F7" s="11"/>
       <c r="G7" s="18"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="176" t="s">
+      <c r="I7" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="176"/>
-      <c r="Y7" s="176"/>
-      <c r="Z7" s="176"/>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="176"/>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="176"/>
-      <c r="AF7" s="176"/>
-      <c r="AG7" s="176"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="176"/>
-      <c r="AJ7" s="176"/>
-      <c r="AK7" s="176"/>
-      <c r="AL7" s="176"/>
-      <c r="AM7" s="176"/>
-      <c r="AN7" s="176"/>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="176"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
       <c r="AU7" s="12"/>
     </row>
     <row r="8" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,15 +8342,15 @@
       <c r="N9" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="153" t="s">
+      <c r="O9" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="155"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="170"/>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
@@ -5857,15 +8358,15 @@
       <c r="Z9" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="162" t="s">
+      <c r="AA9" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="164"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="173"/>
       <c r="AH9" s="120"/>
       <c r="AI9" s="120"/>
       <c r="AJ9" s="120"/>
@@ -5917,15 +8418,15 @@
       <c r="N11" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="153" t="s">
+      <c r="O11" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="155"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="170"/>
       <c r="V11" s="46"/>
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
@@ -6037,7 +8538,7 @@
       <c r="AE14" s="60"/>
       <c r="AF14" s="59"/>
       <c r="AG14" s="60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -6075,29 +8576,29 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="35"/>
-      <c r="R15" s="182" t="s">
+      <c r="R15" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="184"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="167"/>
       <c r="X15" s="36" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
-      <c r="AC15" s="182" t="s">
+      <c r="AC15" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="184"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="167"/>
       <c r="AG15" s="146" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AH15" s="143"/>
       <c r="AI15" s="143"/>
@@ -7474,6 +9975,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AP2:AU4"/>
+    <mergeCell ref="AJ5:AO5"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="AD5:AI5"/>
+    <mergeCell ref="I7:AT7"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:X5"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="R15:W15"/>
     <mergeCell ref="AC15:AF15"/>
@@ -7482,14 +9991,6 @@
     <mergeCell ref="O11:U11"/>
     <mergeCell ref="Y5:AC5"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="AP2:AU4"/>
-    <mergeCell ref="AJ5:AO5"/>
-    <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="AD5:AI5"/>
-    <mergeCell ref="I7:AT7"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:X5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -7524,15 +10025,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -7540,7 +10041,7 @@
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -7553,7 +10054,7 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
@@ -7992,8 +10493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AS51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8006,14 +10507,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -8051,12 +10552,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -8095,12 +10596,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="158"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -8137,12 +10638,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
         <v>99</v>
@@ -8274,7 +10775,7 @@
     </row>
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="108" t="s">
         <v>135</v>
       </c>
       <c r="D7" s="11"/>
@@ -8384,15 +10885,15 @@
       <c r="AE9" s="51"/>
       <c r="AF9" s="51"/>
       <c r="AG9" s="51"/>
-      <c r="AH9" s="185" t="s">
+      <c r="AH9" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="AI9" s="186"/>
-      <c r="AJ9" s="186"/>
-      <c r="AK9" s="186"/>
-      <c r="AL9" s="186"/>
-      <c r="AM9" s="186"/>
-      <c r="AN9" s="187"/>
+      <c r="AI9" s="187"/>
+      <c r="AJ9" s="187"/>
+      <c r="AK9" s="187"/>
+      <c r="AL9" s="187"/>
+      <c r="AM9" s="187"/>
+      <c r="AN9" s="188"/>
       <c r="AO9" s="12"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8410,8 +10911,12 @@
       <c r="M10" s="52"/>
       <c r="N10" s="135"/>
       <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
+      <c r="P10" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="R10" s="135"/>
       <c r="S10" s="135"/>
       <c r="T10" s="135"/>
@@ -8428,13 +10933,13 @@
       <c r="AE10" s="51"/>
       <c r="AF10" s="51"/>
       <c r="AG10" s="51"/>
-      <c r="AH10" s="188"/>
-      <c r="AI10" s="189"/>
-      <c r="AJ10" s="189"/>
-      <c r="AK10" s="189"/>
-      <c r="AL10" s="189"/>
-      <c r="AM10" s="189"/>
-      <c r="AN10" s="190"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="190"/>
+      <c r="AK10" s="190"/>
+      <c r="AL10" s="190"/>
+      <c r="AM10" s="190"/>
+      <c r="AN10" s="191"/>
       <c r="AO10" s="12"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8453,10 +10958,10 @@
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
       <c r="P11" s="134" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
@@ -8474,13 +10979,13 @@
       <c r="AE11" s="51"/>
       <c r="AF11" s="51"/>
       <c r="AG11" s="51"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="189"/>
-      <c r="AJ11" s="189"/>
-      <c r="AK11" s="189"/>
-      <c r="AL11" s="189"/>
-      <c r="AM11" s="189"/>
-      <c r="AN11" s="190"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="190"/>
+      <c r="AJ11" s="190"/>
+      <c r="AK11" s="190"/>
+      <c r="AL11" s="190"/>
+      <c r="AM11" s="190"/>
+      <c r="AN11" s="191"/>
       <c r="AO11" s="12"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8498,8 +11003,12 @@
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
+      <c r="P12" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="138" t="s">
+        <v>109</v>
+      </c>
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
       <c r="T12" s="51"/>
@@ -8516,13 +11025,13 @@
       <c r="AE12" s="51"/>
       <c r="AF12" s="51"/>
       <c r="AG12" s="51"/>
-      <c r="AH12" s="188"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="189"/>
-      <c r="AM12" s="189"/>
-      <c r="AN12" s="190"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="190"/>
+      <c r="AJ12" s="190"/>
+      <c r="AK12" s="190"/>
+      <c r="AL12" s="190"/>
+      <c r="AM12" s="190"/>
+      <c r="AN12" s="191"/>
       <c r="AO12" s="12"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8541,10 +11050,10 @@
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
       <c r="P13" s="134" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="Q13" s="139" t="s">
+        <v>138</v>
       </c>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
@@ -8562,13 +11071,13 @@
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
-      <c r="AH13" s="188"/>
-      <c r="AI13" s="189"/>
-      <c r="AJ13" s="189"/>
-      <c r="AK13" s="189"/>
-      <c r="AL13" s="189"/>
-      <c r="AM13" s="189"/>
-      <c r="AN13" s="190"/>
+      <c r="AH13" s="189"/>
+      <c r="AI13" s="190"/>
+      <c r="AJ13" s="190"/>
+      <c r="AK13" s="190"/>
+      <c r="AL13" s="190"/>
+      <c r="AM13" s="190"/>
+      <c r="AN13" s="191"/>
       <c r="AO13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8584,7 +11093,9 @@
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
+      <c r="N14" s="48" t="s">
+        <v>110</v>
+      </c>
       <c r="O14" s="51"/>
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
@@ -8604,13 +11115,13 @@
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
-      <c r="AH14" s="188"/>
-      <c r="AI14" s="189"/>
-      <c r="AJ14" s="189"/>
-      <c r="AK14" s="189"/>
-      <c r="AL14" s="189"/>
-      <c r="AM14" s="189"/>
-      <c r="AN14" s="190"/>
+      <c r="AH14" s="189"/>
+      <c r="AI14" s="190"/>
+      <c r="AJ14" s="190"/>
+      <c r="AK14" s="190"/>
+      <c r="AL14" s="190"/>
+      <c r="AM14" s="190"/>
+      <c r="AN14" s="191"/>
       <c r="AO14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8629,10 +11140,10 @@
       <c r="N15" s="48"/>
       <c r="O15" s="48"/>
       <c r="P15" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q15" s="138" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="Q15" s="139" t="s">
+        <v>113</v>
       </c>
       <c r="R15" s="48"/>
       <c r="S15" s="48"/>
@@ -8650,13 +11161,13 @@
       <c r="AE15" s="51"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
-      <c r="AH15" s="191"/>
-      <c r="AI15" s="192"/>
-      <c r="AJ15" s="192"/>
-      <c r="AK15" s="192"/>
-      <c r="AL15" s="192"/>
-      <c r="AM15" s="192"/>
-      <c r="AN15" s="193"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="193"/>
+      <c r="AJ15" s="193"/>
+      <c r="AK15" s="193"/>
+      <c r="AL15" s="193"/>
+      <c r="AM15" s="193"/>
+      <c r="AN15" s="194"/>
       <c r="AO15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8673,7 +11184,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O16" s="48"/>
       <c r="P16" s="48"/>
@@ -8701,16 +11212,12 @@
       <c r="I17" s="51"/>
       <c r="J17" s="137"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
-      <c r="P17" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="139" t="s">
-        <v>138</v>
-      </c>
       <c r="R17" s="51"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
@@ -8751,8 +11258,12 @@
       <c r="M18" s="51"/>
       <c r="N18" s="48"/>
       <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="P18" s="134" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="51" t="s">
+        <v>119</v>
+      </c>
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
       <c r="T18" s="48"/>
@@ -8761,8 +11272,12 @@
       <c r="W18" s="48"/>
       <c r="X18" s="48"/>
       <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
+      <c r="Z18" s="134" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA18" s="51" t="s">
+        <v>122</v>
+      </c>
       <c r="AB18" s="48"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="51"/>
@@ -8794,10 +11309,10 @@
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
       <c r="P19" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="139" t="s">
-        <v>113</v>
+        <v>80</v>
+      </c>
+      <c r="Q19" s="136" t="s">
+        <v>124</v>
       </c>
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
@@ -8807,8 +11322,12 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
+      <c r="Z19" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA19" s="51" t="s">
+        <v>138</v>
+      </c>
       <c r="AB19" s="51"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="51"/>
@@ -8837,12 +11356,13 @@
       <c r="K20" s="51"/>
       <c r="L20" s="52"/>
       <c r="M20" s="52"/>
-      <c r="N20" s="48" t="s">
-        <v>114</v>
-      </c>
       <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
+      <c r="P20" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="51" t="s">
+        <v>82</v>
+      </c>
       <c r="R20" s="135"/>
       <c r="S20" s="135"/>
       <c r="T20" s="135"/>
@@ -8879,7 +11399,9 @@
       <c r="I21" s="118"/>
       <c r="J21" s="141"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="52" t="s">
+        <v>127</v>
+      </c>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
@@ -8912,25 +11434,26 @@
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="50"/>
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
       <c r="J22" s="142"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="52" t="s">
-        <v>116</v>
-      </c>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
+      <c r="P22" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="136" t="s">
+        <v>129</v>
+      </c>
       <c r="R22" s="51"/>
       <c r="S22" s="51"/>
       <c r="T22" s="51"/>
@@ -8939,8 +11462,12 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
       <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
+      <c r="Z22" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA22" s="139" t="s">
+        <v>131</v>
+      </c>
       <c r="AB22" s="51"/>
       <c r="AC22" s="51"/>
       <c r="AD22" s="51"/>
@@ -8958,27 +11485,23 @@
     </row>
     <row r="23" spans="2:41" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="50"/>
-      <c r="C23" s="195" t="s">
+      <c r="C23" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
       <c r="J23" s="137"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="52" t="s">
+        <v>139</v>
+      </c>
       <c r="M23" s="52"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
-      <c r="P23" s="134" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="51" t="s">
-        <v>119</v>
-      </c>
       <c r="R23" s="51"/>
       <c r="S23" s="51"/>
       <c r="T23" s="51"/>
@@ -8987,12 +11510,6 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
       <c r="Y23" s="51"/>
-      <c r="Z23" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA23" s="51" t="s">
-        <v>122</v>
-      </c>
       <c r="AB23" s="51"/>
       <c r="AC23" s="51"/>
       <c r="AD23" s="51"/>
@@ -9010,27 +11527,25 @@
     </row>
     <row r="24" spans="2:41" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="50"/>
-      <c r="C24" s="195" t="s">
+      <c r="C24" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="197"/>
       <c r="J24" s="137"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
+      <c r="L24" s="52" t="s">
+        <v>166</v>
+      </c>
       <c r="M24" s="51"/>
       <c r="N24" s="51"/>
       <c r="O24" s="51"/>
-      <c r="P24" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q24" s="136" t="s">
-        <v>124</v>
-      </c>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
       <c r="T24" s="51"/>
@@ -9039,12 +11554,8 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
       <c r="Y24" s="51"/>
-      <c r="Z24" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA24" s="51" t="s">
-        <v>138</v>
-      </c>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
       <c r="AB24" s="51"/>
       <c r="AC24" s="51"/>
       <c r="AD24" s="51"/>
@@ -9073,41 +11584,38 @@
       <c r="I25" s="51"/>
       <c r="J25" s="137"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="55"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51"/>
-      <c r="AN25" s="51"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="203"/>
+      <c r="O25" s="203"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
+      <c r="U25" s="203"/>
+      <c r="V25" s="203"/>
+      <c r="W25" s="203"/>
+      <c r="X25" s="203"/>
+      <c r="Y25" s="203"/>
+      <c r="Z25" s="203"/>
+      <c r="AA25" s="203"/>
+      <c r="AB25" s="203"/>
+      <c r="AC25" s="203"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="200"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="200"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="200"/>
+      <c r="AK25" s="200"/>
+      <c r="AL25" s="200"/>
+      <c r="AM25" s="200"/>
+      <c r="AN25" s="142"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="50"/>
       <c r="C26" s="55" t="s">
         <v>125</v>
@@ -9120,18 +11628,23 @@
       <c r="I26" s="51"/>
       <c r="J26" s="137"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="52" t="s">
-        <v>127</v>
+      <c r="L26" s="209" t="s">
+        <v>154</v>
       </c>
       <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="N26" s="210"/>
+      <c r="O26" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="51"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
       <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
+      <c r="W26" s="51" t="s">
+        <v>169</v>
+      </c>
       <c r="X26" s="51"/>
       <c r="Y26" s="51"/>
       <c r="Z26" s="51"/>
@@ -9141,14 +11654,16 @@
       <c r="AD26" s="51"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
+      <c r="AG26" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH26" s="52"/>
       <c r="AI26" s="51"/>
       <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
+      <c r="AK26" s="217"/>
+      <c r="AL26" s="148"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="218"/>
       <c r="AO26" s="12"/>
     </row>
     <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9162,39 +11677,35 @@
       <c r="I27" s="51"/>
       <c r="J27" s="137"/>
       <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q27" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
       <c r="AD27" s="51"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
       <c r="AG27" s="51"/>
       <c r="AH27" s="51"/>
       <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
+      <c r="AJ27" s="52"/>
       <c r="AK27" s="51"/>
       <c r="AL27" s="51"/>
       <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
+      <c r="AN27" s="137"/>
       <c r="AO27" s="12"/>
     </row>
     <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,38 +11719,35 @@
       <c r="I28" s="51"/>
       <c r="J28" s="137"/>
       <c r="K28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="134" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q28" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="118"/>
+      <c r="AE28" s="118"/>
+      <c r="AF28" s="118"/>
+      <c r="AG28" s="118"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="118"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="141"/>
       <c r="AO28" s="12"/>
     </row>
     <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9254,11 +11762,13 @@
       <c r="J29" s="137"/>
       <c r="K29" s="51"/>
       <c r="L29" s="52" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
       <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
       <c r="R29" s="51"/>
       <c r="S29" s="51"/>
       <c r="T29" s="51"/>
@@ -9295,44 +11805,38 @@
       <c r="I30" s="51"/>
       <c r="J30" s="137"/>
       <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="121" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="200"/>
+      <c r="N30" s="200"/>
+      <c r="O30" s="200"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="200"/>
+      <c r="S30" s="200"/>
+      <c r="T30" s="200"/>
+      <c r="U30" s="200"/>
+      <c r="V30" s="200"/>
+      <c r="W30" s="200"/>
+      <c r="X30" s="200"/>
+      <c r="Y30" s="200"/>
+      <c r="Z30" s="200"/>
+      <c r="AA30" s="200"/>
+      <c r="AB30" s="200"/>
+      <c r="AC30" s="200"/>
+      <c r="AD30" s="200"/>
+      <c r="AE30" s="200"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="200"/>
+      <c r="AI30" s="200"/>
+      <c r="AJ30" s="200"/>
+      <c r="AK30" s="200"/>
+      <c r="AL30" s="200"/>
+      <c r="AM30" s="200"/>
+      <c r="AN30" s="142"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="50"/>
       <c r="C31" s="55"/>
       <c r="D31" s="51"/>
@@ -9343,29 +11847,30 @@
       <c r="I31" s="51"/>
       <c r="J31" s="137"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
+      <c r="L31" s="209" t="s">
+        <v>168</v>
+      </c>
       <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q31" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
+      <c r="N31" s="210"/>
+      <c r="O31" s="210"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="214" t="s">
+        <v>170</v>
+      </c>
+      <c r="S31" s="215"/>
+      <c r="T31" s="216"/>
       <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
+      <c r="W31" s="51" t="s">
+        <v>167</v>
+      </c>
       <c r="X31" s="51"/>
-      <c r="Y31" s="147" t="s">
-        <v>146</v>
-      </c>
+      <c r="Y31" s="51"/>
       <c r="Z31" s="51"/>
       <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
+      <c r="AB31" s="51" t="s">
+        <v>164</v>
+      </c>
       <c r="AC31" s="51"/>
       <c r="AD31" s="51"/>
       <c r="AE31" s="51"/>
@@ -9377,7 +11882,7 @@
       <c r="AK31" s="51"/>
       <c r="AL31" s="51"/>
       <c r="AM31" s="51"/>
-      <c r="AN31" s="51"/>
+      <c r="AN31" s="137"/>
       <c r="AO31" s="12"/>
     </row>
     <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9391,35 +11896,35 @@
       <c r="I32" s="51"/>
       <c r="J32" s="137"/>
       <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="51"/>
-      <c r="AJ32" s="51"/>
-      <c r="AK32" s="51"/>
-      <c r="AL32" s="51"/>
-      <c r="AM32" s="51"/>
-      <c r="AN32" s="51"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="118"/>
+      <c r="AE32" s="118"/>
+      <c r="AF32" s="118"/>
+      <c r="AG32" s="118"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="118"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="141"/>
       <c r="AO32" s="12"/>
     </row>
     <row r="33" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9433,35 +11938,6 @@
       <c r="I33" s="51"/>
       <c r="J33" s="137"/>
       <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="134"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="51"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51"/>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51"/>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51"/>
-      <c r="AN33" s="51"/>
       <c r="AO33" s="12"/>
     </row>
     <row r="34" spans="2:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10173,21 +12649,25 @@
       <c r="AR51" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="R31:T31"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="AH9:AN15"/>
     <mergeCell ref="C22:I22"/>
     <mergeCell ref="C23:I23"/>
     <mergeCell ref="C24:I24"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:P8">
       <formula1>"7,30,365"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N31:P31 N26">
+      <formula1>"10,20,30"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q24" r:id="rId1"/>
-    <hyperlink ref="Q27" r:id="rId2"/>
+    <hyperlink ref="Q19" r:id="rId1"/>
+    <hyperlink ref="Q22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -10218,15 +12698,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -10234,7 +12714,7 @@
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -10247,7 +12727,7 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
@@ -10686,8 +13166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10702,14 +13182,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="180" t="s">
+      <c r="B1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="181"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="164"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -10755,12 +13235,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="158"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -10797,22 +13277,22 @@
       </c>
       <c r="AN2" s="11"/>
       <c r="AO2" s="11"/>
-      <c r="AP2" s="168" t="s">
+      <c r="AP2" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="169"/>
+      <c r="AQ2" s="180"/>
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
     </row>
     <row r="3" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="158"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -10846,20 +13326,20 @@
       <c r="AL3" s="11"/>
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="169"/>
+      <c r="AP3" s="180"/>
+      <c r="AQ3" s="180"/>
+      <c r="AR3" s="180"/>
+      <c r="AS3" s="180"/>
+      <c r="AT3" s="180"/>
+      <c r="AU3" s="181"/>
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="158"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
@@ -10894,12 +13374,12 @@
       <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
       <c r="AO4" s="15"/>
-      <c r="AP4" s="170"/>
-      <c r="AQ4" s="170"/>
-      <c r="AR4" s="170"/>
-      <c r="AS4" s="170"/>
-      <c r="AT4" s="170"/>
-      <c r="AU4" s="171"/>
+      <c r="AP4" s="182"/>
+      <c r="AQ4" s="182"/>
+      <c r="AR4" s="182"/>
+      <c r="AS4" s="182"/>
+      <c r="AT4" s="182"/>
+      <c r="AU4" s="183"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="111" t="s">
@@ -10914,52 +13394,52 @@
       <c r="G5" s="178"/>
       <c r="H5" s="178"/>
       <c r="I5" s="179"/>
-      <c r="J5" s="172" t="s">
+      <c r="J5" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="172" t="s">
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="172" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="172" t="s">
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="174"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="174"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="173"/>
-      <c r="AR5" s="173"/>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="175"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="176"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="175"/>
+      <c r="AR5" s="175"/>
+      <c r="AS5" s="175"/>
+      <c r="AT5" s="175"/>
+      <c r="AU5" s="184"/>
     </row>
     <row r="6" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
@@ -11021,46 +13501,46 @@
       <c r="F7" s="11"/>
       <c r="G7" s="18"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="176" t="s">
+      <c r="I7" s="185" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="176"/>
-      <c r="T7" s="176"/>
-      <c r="U7" s="176"/>
-      <c r="V7" s="176"/>
-      <c r="W7" s="176"/>
-      <c r="X7" s="176"/>
-      <c r="Y7" s="176"/>
-      <c r="Z7" s="176"/>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="176"/>
-      <c r="AC7" s="176"/>
-      <c r="AD7" s="176"/>
-      <c r="AE7" s="176"/>
-      <c r="AF7" s="176"/>
-      <c r="AG7" s="176"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="176"/>
-      <c r="AJ7" s="176"/>
-      <c r="AK7" s="176"/>
-      <c r="AL7" s="176"/>
-      <c r="AM7" s="176"/>
-      <c r="AN7" s="176"/>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="176"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="185"/>
+      <c r="AA7" s="185"/>
+      <c r="AB7" s="185"/>
+      <c r="AC7" s="185"/>
+      <c r="AD7" s="185"/>
+      <c r="AE7" s="185"/>
+      <c r="AF7" s="185"/>
+      <c r="AG7" s="185"/>
+      <c r="AH7" s="185"/>
+      <c r="AI7" s="185"/>
+      <c r="AJ7" s="185"/>
+      <c r="AK7" s="185"/>
+      <c r="AL7" s="185"/>
+      <c r="AM7" s="185"/>
+      <c r="AN7" s="185"/>
+      <c r="AO7" s="185"/>
+      <c r="AP7" s="185"/>
+      <c r="AQ7" s="185"/>
+      <c r="AR7" s="185"/>
+      <c r="AS7" s="185"/>
+      <c r="AT7" s="185"/>
       <c r="AU7" s="12"/>
     </row>
     <row r="8" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11120,15 +13600,15 @@
       <c r="N9" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="O9" s="153" t="s">
+      <c r="O9" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="155"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="170"/>
       <c r="V9" s="46"/>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
@@ -11136,15 +13616,15 @@
       <c r="Z9" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="AA9" s="162" t="s">
+      <c r="AA9" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="164"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="172"/>
+      <c r="AF9" s="172"/>
+      <c r="AG9" s="173"/>
       <c r="AH9" s="120"/>
       <c r="AI9" s="120"/>
       <c r="AJ9" s="120"/>
@@ -11196,15 +13676,15 @@
       <c r="N11" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="153" t="s">
+      <c r="O11" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="155"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="170"/>
       <c r="V11" s="46"/>
       <c r="W11" s="46"/>
       <c r="X11" s="46"/>
@@ -11295,7 +13775,7 @@
       <c r="P14" s="60"/>
       <c r="Q14" s="59"/>
       <c r="R14" s="60" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="S14" s="60"/>
       <c r="T14" s="60"/>
@@ -11303,7 +13783,7 @@
       <c r="V14" s="60"/>
       <c r="W14" s="59"/>
       <c r="X14" s="60" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="Y14" s="60"/>
       <c r="Z14" s="60"/>
@@ -11316,7 +13796,7 @@
       <c r="AE14" s="60"/>
       <c r="AF14" s="59"/>
       <c r="AG14" s="60" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AH14" s="60"/>
       <c r="AI14" s="60"/>
@@ -11354,34 +13834,36 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="35"/>
-      <c r="R15" s="182" t="s">
+      <c r="R15" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="S15" s="183"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="183"/>
-      <c r="V15" s="183"/>
-      <c r="W15" s="184"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="167"/>
       <c r="X15" s="36" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
-      <c r="AC15" s="182" t="s">
+      <c r="AC15" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="AD15" s="183"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="184"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="166"/>
+      <c r="AF15" s="167"/>
       <c r="AG15" s="146" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AH15" s="143"/>
       <c r="AI15" s="143"/>
       <c r="AJ15" s="144"/>
-      <c r="AK15" s="34"/>
+      <c r="AK15" s="34" t="s">
+        <v>152</v>
+      </c>
       <c r="AL15" s="36"/>
       <c r="AM15" s="36"/>
       <c r="AN15" s="35"/>
@@ -12753,6 +15235,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I7:AT7"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="R15:W15"/>
+    <mergeCell ref="AC15:AF15"/>
     <mergeCell ref="B1:G4"/>
     <mergeCell ref="AP2:AU4"/>
     <mergeCell ref="F5:I5"/>
@@ -12763,12 +15251,6 @@
     <mergeCell ref="AD5:AI5"/>
     <mergeCell ref="AJ5:AO5"/>
     <mergeCell ref="AP5:AU5"/>
-    <mergeCell ref="I7:AT7"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="AC15:AF15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -12784,7 +15266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -12803,15 +15285,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -12819,7 +15301,7 @@
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
@@ -12832,7 +15314,7 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="70" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="28" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="862" firstSheet="23" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="43" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="566">
   <si>
     <t>Logo</t>
   </si>
@@ -1893,6 +1893,21 @@
   </si>
   <si>
     <t>Nút tạo hóa đơn mới</t>
+  </si>
+  <si>
+    <t>Hiện thị bản tổng hợp của tháng</t>
+  </si>
+  <si>
+    <t>Năm hiển thị</t>
+  </si>
+  <si>
+    <t>Số thứ tự các danh mục</t>
+  </si>
+  <si>
+    <t>Các hạng mục</t>
+  </si>
+  <si>
+    <t>Đơn vị tiền</t>
   </si>
 </sst>
 </file>
@@ -3121,30 +3136,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3178,6 +3169,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3192,6 +3192,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9469,16 +9484,16 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="272" t="s">
+      <c r="I6" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="273"/>
-      <c r="K6" s="273"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="273"/>
-      <c r="P6" s="274"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="265"/>
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="265"/>
+      <c r="P6" s="266"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -12065,16 +12080,16 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="269" t="s">
+      <c r="I6" s="261" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="270"/>
-      <c r="K6" s="270"/>
-      <c r="L6" s="270"/>
-      <c r="M6" s="270"/>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="271"/>
+      <c r="J6" s="262"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="262"/>
+      <c r="M6" s="262"/>
+      <c r="N6" s="262"/>
+      <c r="O6" s="262"/>
+      <c r="P6" s="263"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -14417,14 +14432,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="242"/>
       <c r="D1" s="242"/>
       <c r="E1" s="242"/>
       <c r="F1" s="242"/>
-      <c r="G1" s="265"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -14576,46 +14591,46 @@
       <c r="E4" s="292"/>
       <c r="F4" s="292"/>
       <c r="G4" s="293"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="259"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="259"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="262"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="267"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="268"/>
+      <c r="AC4" s="269"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="268"/>
+      <c r="AH4" s="268"/>
+      <c r="AI4" s="269"/>
+      <c r="AJ4" s="267"/>
+      <c r="AK4" s="268"/>
+      <c r="AL4" s="268"/>
+      <c r="AM4" s="268"/>
+      <c r="AN4" s="268"/>
+      <c r="AO4" s="269"/>
+      <c r="AP4" s="267"/>
+      <c r="AQ4" s="268"/>
+      <c r="AR4" s="268"/>
+      <c r="AS4" s="268"/>
+      <c r="AT4" s="268"/>
+      <c r="AU4" s="278"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -14677,46 +14692,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="263" t="s">
+      <c r="I6" s="279" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="263"/>
-      <c r="AO6" s="263"/>
-      <c r="AP6" s="263"/>
-      <c r="AQ6" s="263"/>
-      <c r="AR6" s="263"/>
-      <c r="AS6" s="263"/>
-      <c r="AT6" s="263"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="279"/>
+      <c r="Z6" s="279"/>
+      <c r="AA6" s="279"/>
+      <c r="AB6" s="279"/>
+      <c r="AC6" s="279"/>
+      <c r="AD6" s="279"/>
+      <c r="AE6" s="279"/>
+      <c r="AF6" s="279"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="279"/>
+      <c r="AI6" s="279"/>
+      <c r="AJ6" s="279"/>
+      <c r="AK6" s="279"/>
+      <c r="AL6" s="279"/>
+      <c r="AM6" s="279"/>
+      <c r="AN6" s="279"/>
+      <c r="AO6" s="279"/>
+      <c r="AP6" s="279"/>
+      <c r="AQ6" s="279"/>
+      <c r="AR6" s="279"/>
+      <c r="AS6" s="279"/>
+      <c r="AT6" s="279"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14777,13 +14792,13 @@
       <c r="N8" s="117" t="s">
         <v>176</v>
       </c>
-      <c r="O8" s="269"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="271"/>
+      <c r="O8" s="261"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="263"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -14791,13 +14806,13 @@
       <c r="Z8" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="274"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="266"/>
       <c r="AH8" s="148"/>
       <c r="AI8" s="148"/>
       <c r="AJ8" s="148"/>
@@ -14854,15 +14869,15 @@
       <c r="N10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="269" t="s">
+      <c r="O10" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="270"/>
-      <c r="R10" s="270"/>
-      <c r="S10" s="270"/>
-      <c r="T10" s="270"/>
-      <c r="U10" s="271"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="262"/>
+      <c r="R10" s="262"/>
+      <c r="S10" s="262"/>
+      <c r="T10" s="262"/>
+      <c r="U10" s="263"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -14870,15 +14885,15 @@
       <c r="Z10" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="269" t="s">
+      <c r="AA10" s="261" t="s">
         <v>96</v>
       </c>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="270"/>
-      <c r="AD10" s="270"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="270"/>
-      <c r="AG10" s="271"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -15030,14 +15045,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="266" t="s">
+      <c r="R14" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="267"/>
-      <c r="T14" s="267"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="268"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="260"/>
       <c r="X14" s="36" t="s">
         <v>132</v>
       </c>
@@ -15045,12 +15060,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="266" t="s">
+      <c r="AC14" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="268"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="260"/>
       <c r="AG14" s="142" t="s">
         <v>174</v>
       </c>
@@ -16431,22 +16446,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AD4:AI4"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="AJ4:AO4"/>
     <mergeCell ref="AP4:AU4"/>
     <mergeCell ref="I6:AT6"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="AA8:AG8"/>
     <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AD4:AI4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -20422,7 +20437,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -21332,15 +21347,15 @@
         <v>204</v>
       </c>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="272" t="s">
+      <c r="AA6" s="264" t="s">
         <v>201</v>
       </c>
-      <c r="AB6" s="273"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="273"/>
-      <c r="AE6" s="273"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="274"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
+      <c r="AE6" s="265"/>
+      <c r="AF6" s="265"/>
+      <c r="AG6" s="266"/>
       <c r="AH6" s="207" t="s">
         <v>204</v>
       </c>
@@ -21370,17 +21385,17 @@
       <c r="O7" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="269" t="s">
+      <c r="P7" s="261" t="s">
         <v>189</v>
       </c>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="271"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="263"/>
       <c r="Y7" s="207" t="s">
         <v>204</v>
       </c>
@@ -21599,17 +21614,17 @@
       <c r="O12" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="269" t="s">
+      <c r="P12" s="261" t="s">
         <v>203</v>
       </c>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="270"/>
-      <c r="U12" s="270"/>
-      <c r="V12" s="270"/>
-      <c r="W12" s="270"/>
-      <c r="X12" s="271"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="262"/>
+      <c r="T12" s="262"/>
+      <c r="U12" s="262"/>
+      <c r="V12" s="262"/>
+      <c r="W12" s="262"/>
+      <c r="X12" s="263"/>
       <c r="Y12" s="207" t="s">
         <v>204</v>
       </c>
@@ -23134,6 +23149,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="P13:X13"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="P9:X9"/>
@@ -23142,14 +23165,6 @@
     <mergeCell ref="P10:X10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:X11"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="P12:X12"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7">
@@ -24084,16 +24099,16 @@
       <c r="W6" s="251"/>
       <c r="X6" s="252"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="272" t="s">
+      <c r="Z6" s="264" t="s">
         <v>201</v>
       </c>
-      <c r="AA6" s="273"/>
-      <c r="AB6" s="273"/>
-      <c r="AC6" s="273"/>
-      <c r="AD6" s="273"/>
-      <c r="AE6" s="273"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="274"/>
+      <c r="AA6" s="265"/>
+      <c r="AB6" s="265"/>
+      <c r="AC6" s="265"/>
+      <c r="AD6" s="265"/>
+      <c r="AE6" s="265"/>
+      <c r="AF6" s="265"/>
+      <c r="AG6" s="266"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="11"/>
@@ -24121,17 +24136,17 @@
       <c r="O7" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="269" t="s">
+      <c r="P7" s="261" t="s">
         <v>189</v>
       </c>
-      <c r="Q7" s="270"/>
-      <c r="R7" s="270"/>
-      <c r="S7" s="270"/>
-      <c r="T7" s="270"/>
-      <c r="U7" s="270"/>
-      <c r="V7" s="270"/>
-      <c r="W7" s="270"/>
-      <c r="X7" s="271"/>
+      <c r="Q7" s="262"/>
+      <c r="R7" s="262"/>
+      <c r="S7" s="262"/>
+      <c r="T7" s="262"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="262"/>
+      <c r="W7" s="262"/>
+      <c r="X7" s="263"/>
       <c r="Y7" s="6" t="s">
         <v>199</v>
       </c>
@@ -24340,17 +24355,17 @@
       <c r="O12" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="P12" s="273" t="s">
+      <c r="P12" s="265" t="s">
         <v>203</v>
       </c>
-      <c r="Q12" s="273"/>
-      <c r="R12" s="273"/>
-      <c r="S12" s="273"/>
-      <c r="T12" s="273"/>
-      <c r="U12" s="273"/>
-      <c r="V12" s="273"/>
-      <c r="W12" s="273"/>
-      <c r="X12" s="273"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="265"/>
+      <c r="S12" s="265"/>
+      <c r="T12" s="265"/>
+      <c r="U12" s="265"/>
+      <c r="V12" s="265"/>
+      <c r="W12" s="265"/>
+      <c r="X12" s="265"/>
       <c r="Y12" s="51" t="s">
         <v>190</v>
       </c>
@@ -25875,6 +25890,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="P13:X13"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="P9:X9"/>
@@ -25883,14 +25906,6 @@
     <mergeCell ref="P10:X10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:X11"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="P12:X12"/>
-    <mergeCell ref="Z6:AG6"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22 K26:L26">
@@ -25917,7 +25932,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26580,14 +26595,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="242"/>
       <c r="D1" s="242"/>
       <c r="E1" s="242"/>
       <c r="F1" s="242"/>
-      <c r="G1" s="265"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -26732,53 +26747,53 @@
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="174"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="259"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="259"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="262"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="267"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="268"/>
+      <c r="AC4" s="269"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="268"/>
+      <c r="AH4" s="268"/>
+      <c r="AI4" s="269"/>
+      <c r="AJ4" s="267"/>
+      <c r="AK4" s="268"/>
+      <c r="AL4" s="268"/>
+      <c r="AM4" s="268"/>
+      <c r="AN4" s="268"/>
+      <c r="AO4" s="269"/>
+      <c r="AP4" s="267"/>
+      <c r="AQ4" s="268"/>
+      <c r="AR4" s="268"/>
+      <c r="AS4" s="268"/>
+      <c r="AT4" s="268"/>
+      <c r="AU4" s="278"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -26840,46 +26855,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="263" t="s">
+      <c r="I6" s="279" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="263"/>
-      <c r="AO6" s="263"/>
-      <c r="AP6" s="263"/>
-      <c r="AQ6" s="263"/>
-      <c r="AR6" s="263"/>
-      <c r="AS6" s="263"/>
-      <c r="AT6" s="263"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="279"/>
+      <c r="Z6" s="279"/>
+      <c r="AA6" s="279"/>
+      <c r="AB6" s="279"/>
+      <c r="AC6" s="279"/>
+      <c r="AD6" s="279"/>
+      <c r="AE6" s="279"/>
+      <c r="AF6" s="279"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="279"/>
+      <c r="AI6" s="279"/>
+      <c r="AJ6" s="279"/>
+      <c r="AK6" s="279"/>
+      <c r="AL6" s="279"/>
+      <c r="AM6" s="279"/>
+      <c r="AN6" s="279"/>
+      <c r="AO6" s="279"/>
+      <c r="AP6" s="279"/>
+      <c r="AQ6" s="279"/>
+      <c r="AR6" s="279"/>
+      <c r="AS6" s="279"/>
+      <c r="AT6" s="279"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -26940,15 +26955,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="269" t="s">
+      <c r="O8" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="271"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="263"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -26956,15 +26971,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="272" t="s">
+      <c r="AA8" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="274"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="266"/>
       <c r="AH8" s="148"/>
       <c r="AI8" s="148"/>
       <c r="AJ8" s="148"/>
@@ -27021,13 +27036,13 @@
       <c r="N10" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="274"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="265"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="265"/>
+      <c r="S10" s="265"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="266"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -27035,15 +27050,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="269" t="s">
+      <c r="AA10" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="270"/>
-      <c r="AD10" s="270"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="270"/>
-      <c r="AG10" s="271"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -27108,11 +27123,11 @@
       <c r="I12" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L12" s="272">
+      <c r="L12" s="264">
         <v>10</v>
       </c>
-      <c r="M12" s="273"/>
-      <c r="N12" s="274"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
       <c r="O12" s="6" t="s">
         <v>232</v>
       </c>
@@ -27215,14 +27230,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="266" t="s">
+      <c r="R14" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="267"/>
-      <c r="T14" s="267"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="268"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="260"/>
       <c r="X14" s="36" t="s">
         <v>242</v>
       </c>
@@ -27230,12 +27245,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="266" t="s">
+      <c r="AC14" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="268"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="260"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -27826,53 +27841,53 @@
       <c r="B31" s="213">
         <v>1</v>
       </c>
-      <c r="C31" s="256" t="s">
+      <c r="C31" s="275" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="257"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="257"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="257"/>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="257"/>
-      <c r="AC31" s="257"/>
-      <c r="AD31" s="257"/>
-      <c r="AE31" s="257"/>
-      <c r="AF31" s="257"/>
-      <c r="AG31" s="257"/>
-      <c r="AH31" s="257"/>
-      <c r="AI31" s="257"/>
-      <c r="AJ31" s="257"/>
-      <c r="AK31" s="257"/>
-      <c r="AL31" s="257"/>
-      <c r="AM31" s="257"/>
-      <c r="AN31" s="257"/>
-      <c r="AO31" s="257"/>
-      <c r="AP31" s="257"/>
-      <c r="AQ31" s="257"/>
-      <c r="AR31" s="257"/>
-      <c r="AS31" s="257"/>
-      <c r="AT31" s="257"/>
-      <c r="AU31" s="258"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
+      <c r="K31" s="276"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="276"/>
+      <c r="O31" s="276"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="276"/>
+      <c r="R31" s="276"/>
+      <c r="S31" s="276"/>
+      <c r="T31" s="276"/>
+      <c r="U31" s="276"/>
+      <c r="V31" s="276"/>
+      <c r="W31" s="276"/>
+      <c r="X31" s="276"/>
+      <c r="Y31" s="276"/>
+      <c r="Z31" s="276"/>
+      <c r="AA31" s="276"/>
+      <c r="AB31" s="276"/>
+      <c r="AC31" s="276"/>
+      <c r="AD31" s="276"/>
+      <c r="AE31" s="276"/>
+      <c r="AF31" s="276"/>
+      <c r="AG31" s="276"/>
+      <c r="AH31" s="276"/>
+      <c r="AI31" s="276"/>
+      <c r="AJ31" s="276"/>
+      <c r="AK31" s="276"/>
+      <c r="AL31" s="276"/>
+      <c r="AM31" s="276"/>
+      <c r="AN31" s="276"/>
+      <c r="AO31" s="276"/>
+      <c r="AP31" s="276"/>
+      <c r="AQ31" s="276"/>
+      <c r="AR31" s="276"/>
+      <c r="AS31" s="276"/>
+      <c r="AT31" s="276"/>
+      <c r="AU31" s="277"/>
     </row>
     <row r="32" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="213">
@@ -28621,11 +28636,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
     <mergeCell ref="C31:AU31"/>
     <mergeCell ref="AD4:AI4"/>
     <mergeCell ref="AJ4:AO4"/>
@@ -28639,6 +28649,11 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -28656,7 +28671,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31154,7 +31169,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31805,8 +31820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:AH4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32092,12 +32107,12 @@
       <c r="Q7" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="S7" s="272">
+      <c r="S7" s="264">
         <v>2014</v>
       </c>
-      <c r="T7" s="273"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="274"/>
+      <c r="T7" s="265"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="266"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
@@ -34437,7 +34452,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34533,7 +34548,9 @@
       <c r="G6" s="76">
         <v>10</v>
       </c>
-      <c r="H6" s="77"/>
+      <c r="H6" s="77" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="75">
@@ -34546,7 +34563,7 @@
         <v>235</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F7" s="76" t="s">
         <v>65</v>
@@ -34554,7 +34571,9 @@
       <c r="G7" s="76">
         <v>10</v>
       </c>
-      <c r="H7" s="77"/>
+      <c r="H7" s="77" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="75">
@@ -34575,7 +34594,9 @@
       <c r="G8" s="76">
         <v>50</v>
       </c>
-      <c r="H8" s="77"/>
+      <c r="H8" s="77" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="75">
@@ -34588,7 +34609,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F9" s="76" t="s">
         <v>65</v>
@@ -34596,7 +34617,9 @@
       <c r="G9" s="76">
         <v>20</v>
       </c>
-      <c r="H9" s="77"/>
+      <c r="H9" s="77" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="75">
@@ -34609,7 +34632,7 @@
         <v>524</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="F10" s="76" t="s">
         <v>9</v>
@@ -34617,7 +34640,9 @@
       <c r="G10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="77" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="75">
@@ -34636,7 +34661,9 @@
       <c r="G11" s="76">
         <v>10</v>
       </c>
-      <c r="H11" s="78"/>
+      <c r="H11" s="78" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="75"/>
@@ -35239,21 +35266,21 @@
       <c r="I7" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="272"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="274"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
       <c r="U7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="273"/>
-      <c r="Z7" s="273"/>
-      <c r="AA7" s="273"/>
-      <c r="AB7" s="273"/>
-      <c r="AC7" s="273"/>
-      <c r="AD7" s="274"/>
+      <c r="X7" s="264"/>
+      <c r="Y7" s="265"/>
+      <c r="Z7" s="265"/>
+      <c r="AA7" s="265"/>
+      <c r="AB7" s="265"/>
+      <c r="AC7" s="265"/>
+      <c r="AD7" s="266"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="12"/>
     </row>
@@ -36664,18 +36691,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="K17:M17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:M17 K9:M9">
@@ -36696,7 +36723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -37611,20 +37638,20 @@
       <c r="K7" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="L7" s="272"/>
-      <c r="M7" s="273"/>
-      <c r="N7" s="273"/>
-      <c r="O7" s="273"/>
-      <c r="P7" s="274"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="265"/>
+      <c r="O7" s="265"/>
+      <c r="P7" s="266"/>
       <c r="S7" s="117" t="s">
         <v>282</v>
       </c>
-      <c r="T7" s="272"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="273"/>
-      <c r="W7" s="273"/>
-      <c r="X7" s="273"/>
-      <c r="Y7" s="274"/>
+      <c r="T7" s="264"/>
+      <c r="U7" s="265"/>
+      <c r="V7" s="265"/>
+      <c r="W7" s="265"/>
+      <c r="X7" s="265"/>
+      <c r="Y7" s="266"/>
       <c r="Z7" s="46"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
@@ -40065,14 +40092,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="242"/>
       <c r="D1" s="242"/>
       <c r="E1" s="242"/>
       <c r="F1" s="242"/>
-      <c r="G1" s="265"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -40217,53 +40244,53 @@
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="174"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="259"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="259"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="262"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="267"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="268"/>
+      <c r="AC4" s="269"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="268"/>
+      <c r="AH4" s="268"/>
+      <c r="AI4" s="269"/>
+      <c r="AJ4" s="267"/>
+      <c r="AK4" s="268"/>
+      <c r="AL4" s="268"/>
+      <c r="AM4" s="268"/>
+      <c r="AN4" s="268"/>
+      <c r="AO4" s="269"/>
+      <c r="AP4" s="267"/>
+      <c r="AQ4" s="268"/>
+      <c r="AR4" s="268"/>
+      <c r="AS4" s="268"/>
+      <c r="AT4" s="268"/>
+      <c r="AU4" s="278"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -40325,46 +40352,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="263" t="s">
+      <c r="I6" s="279" t="s">
         <v>220</v>
       </c>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="263"/>
-      <c r="AO6" s="263"/>
-      <c r="AP6" s="263"/>
-      <c r="AQ6" s="263"/>
-      <c r="AR6" s="263"/>
-      <c r="AS6" s="263"/>
-      <c r="AT6" s="263"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="279"/>
+      <c r="Z6" s="279"/>
+      <c r="AA6" s="279"/>
+      <c r="AB6" s="279"/>
+      <c r="AC6" s="279"/>
+      <c r="AD6" s="279"/>
+      <c r="AE6" s="279"/>
+      <c r="AF6" s="279"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="279"/>
+      <c r="AI6" s="279"/>
+      <c r="AJ6" s="279"/>
+      <c r="AK6" s="279"/>
+      <c r="AL6" s="279"/>
+      <c r="AM6" s="279"/>
+      <c r="AN6" s="279"/>
+      <c r="AO6" s="279"/>
+      <c r="AP6" s="279"/>
+      <c r="AQ6" s="279"/>
+      <c r="AR6" s="279"/>
+      <c r="AS6" s="279"/>
+      <c r="AT6" s="279"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40425,15 +40452,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="269" t="s">
+      <c r="O8" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="271"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="263"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -40441,15 +40468,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="272" t="s">
+      <c r="AA8" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="274"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="266"/>
       <c r="AH8" s="116"/>
       <c r="AI8" s="116"/>
       <c r="AJ8" s="116"/>
@@ -40506,13 +40533,13 @@
       <c r="N10" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="274"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="265"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="265"/>
+      <c r="S10" s="265"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="266"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -40520,15 +40547,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="269" t="s">
+      <c r="AA10" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="270"/>
-      <c r="AD10" s="270"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="270"/>
-      <c r="AG10" s="271"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -40593,11 +40620,11 @@
       <c r="I12" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L12" s="272">
+      <c r="L12" s="264">
         <v>10</v>
       </c>
-      <c r="M12" s="273"/>
-      <c r="N12" s="274"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
       <c r="O12" s="6" t="s">
         <v>232</v>
       </c>
@@ -40698,14 +40725,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="266" t="s">
+      <c r="R14" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="267"/>
-      <c r="T14" s="267"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="268"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="260"/>
       <c r="X14" s="36" t="s">
         <v>122</v>
       </c>
@@ -40713,12 +40740,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="266" t="s">
+      <c r="AC14" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="268"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="260"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -41307,53 +41334,53 @@
       <c r="B31" s="213">
         <v>1</v>
       </c>
-      <c r="C31" s="256" t="s">
+      <c r="C31" s="275" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="257"/>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="257"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="257"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="257"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="257"/>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="257"/>
-      <c r="AC31" s="257"/>
-      <c r="AD31" s="257"/>
-      <c r="AE31" s="257"/>
-      <c r="AF31" s="257"/>
-      <c r="AG31" s="257"/>
-      <c r="AH31" s="257"/>
-      <c r="AI31" s="257"/>
-      <c r="AJ31" s="257"/>
-      <c r="AK31" s="257"/>
-      <c r="AL31" s="257"/>
-      <c r="AM31" s="257"/>
-      <c r="AN31" s="257"/>
-      <c r="AO31" s="257"/>
-      <c r="AP31" s="257"/>
-      <c r="AQ31" s="257"/>
-      <c r="AR31" s="257"/>
-      <c r="AS31" s="257"/>
-      <c r="AT31" s="257"/>
-      <c r="AU31" s="258"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="276"/>
+      <c r="F31" s="276"/>
+      <c r="G31" s="276"/>
+      <c r="H31" s="276"/>
+      <c r="I31" s="276"/>
+      <c r="J31" s="276"/>
+      <c r="K31" s="276"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="276"/>
+      <c r="N31" s="276"/>
+      <c r="O31" s="276"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="276"/>
+      <c r="R31" s="276"/>
+      <c r="S31" s="276"/>
+      <c r="T31" s="276"/>
+      <c r="U31" s="276"/>
+      <c r="V31" s="276"/>
+      <c r="W31" s="276"/>
+      <c r="X31" s="276"/>
+      <c r="Y31" s="276"/>
+      <c r="Z31" s="276"/>
+      <c r="AA31" s="276"/>
+      <c r="AB31" s="276"/>
+      <c r="AC31" s="276"/>
+      <c r="AD31" s="276"/>
+      <c r="AE31" s="276"/>
+      <c r="AF31" s="276"/>
+      <c r="AG31" s="276"/>
+      <c r="AH31" s="276"/>
+      <c r="AI31" s="276"/>
+      <c r="AJ31" s="276"/>
+      <c r="AK31" s="276"/>
+      <c r="AL31" s="276"/>
+      <c r="AM31" s="276"/>
+      <c r="AN31" s="276"/>
+      <c r="AO31" s="276"/>
+      <c r="AP31" s="276"/>
+      <c r="AQ31" s="276"/>
+      <c r="AR31" s="276"/>
+      <c r="AS31" s="276"/>
+      <c r="AT31" s="276"/>
+      <c r="AU31" s="277"/>
     </row>
     <row r="32" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="213">
@@ -42102,6 +42129,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C31:AU31"/>
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AP4:AU4"/>
+    <mergeCell ref="AD4:AI4"/>
+    <mergeCell ref="I6:AT6"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
@@ -42113,13 +42147,6 @@
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C31:AU31"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AP4:AU4"/>
-    <mergeCell ref="AD4:AI4"/>
-    <mergeCell ref="I6:AT6"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -42907,13 +42934,13 @@
     </row>
     <row r="4" spans="2:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="121"/>
-      <c r="C4" s="275" t="s">
+      <c r="C4" s="270" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="276"/>
+      <c r="D4" s="270"/>
+      <c r="E4" s="270"/>
+      <c r="F4" s="270"/>
+      <c r="G4" s="271"/>
       <c r="H4" s="181"/>
       <c r="I4" s="182"/>
       <c r="J4" s="182"/>
@@ -45387,14 +45414,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="264" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="242"/>
       <c r="D1" s="242"/>
       <c r="E1" s="242"/>
       <c r="F1" s="242"/>
-      <c r="G1" s="265"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -45546,46 +45573,46 @@
       <c r="E4" s="292"/>
       <c r="F4" s="292"/>
       <c r="G4" s="293"/>
-      <c r="H4" s="277"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="278"/>
-      <c r="K4" s="278"/>
-      <c r="L4" s="278"/>
-      <c r="M4" s="278"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="259"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="260"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="260"/>
-      <c r="T4" s="261"/>
-      <c r="U4" s="259"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="261"/>
-      <c r="Y4" s="259"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="260"/>
-      <c r="AG4" s="260"/>
-      <c r="AH4" s="260"/>
-      <c r="AI4" s="261"/>
-      <c r="AJ4" s="259"/>
-      <c r="AK4" s="260"/>
-      <c r="AL4" s="260"/>
-      <c r="AM4" s="260"/>
-      <c r="AN4" s="260"/>
-      <c r="AO4" s="261"/>
-      <c r="AP4" s="259"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="262"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="267"/>
+      <c r="P4" s="268"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="268"/>
+      <c r="S4" s="268"/>
+      <c r="T4" s="269"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="267"/>
+      <c r="Z4" s="268"/>
+      <c r="AA4" s="268"/>
+      <c r="AB4" s="268"/>
+      <c r="AC4" s="269"/>
+      <c r="AD4" s="267"/>
+      <c r="AE4" s="268"/>
+      <c r="AF4" s="268"/>
+      <c r="AG4" s="268"/>
+      <c r="AH4" s="268"/>
+      <c r="AI4" s="269"/>
+      <c r="AJ4" s="267"/>
+      <c r="AK4" s="268"/>
+      <c r="AL4" s="268"/>
+      <c r="AM4" s="268"/>
+      <c r="AN4" s="268"/>
+      <c r="AO4" s="269"/>
+      <c r="AP4" s="267"/>
+      <c r="AQ4" s="268"/>
+      <c r="AR4" s="268"/>
+      <c r="AS4" s="268"/>
+      <c r="AT4" s="268"/>
+      <c r="AU4" s="278"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -45647,46 +45674,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="263" t="s">
+      <c r="I6" s="279" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="263"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="263"/>
-      <c r="U6" s="263"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
-      <c r="X6" s="263"/>
-      <c r="Y6" s="263"/>
-      <c r="Z6" s="263"/>
-      <c r="AA6" s="263"/>
-      <c r="AB6" s="263"/>
-      <c r="AC6" s="263"/>
-      <c r="AD6" s="263"/>
-      <c r="AE6" s="263"/>
-      <c r="AF6" s="263"/>
-      <c r="AG6" s="263"/>
-      <c r="AH6" s="263"/>
-      <c r="AI6" s="263"/>
-      <c r="AJ6" s="263"/>
-      <c r="AK6" s="263"/>
-      <c r="AL6" s="263"/>
-      <c r="AM6" s="263"/>
-      <c r="AN6" s="263"/>
-      <c r="AO6" s="263"/>
-      <c r="AP6" s="263"/>
-      <c r="AQ6" s="263"/>
-      <c r="AR6" s="263"/>
-      <c r="AS6" s="263"/>
-      <c r="AT6" s="263"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="279"/>
+      <c r="R6" s="279"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="279"/>
+      <c r="U6" s="279"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="279"/>
+      <c r="Y6" s="279"/>
+      <c r="Z6" s="279"/>
+      <c r="AA6" s="279"/>
+      <c r="AB6" s="279"/>
+      <c r="AC6" s="279"/>
+      <c r="AD6" s="279"/>
+      <c r="AE6" s="279"/>
+      <c r="AF6" s="279"/>
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="279"/>
+      <c r="AI6" s="279"/>
+      <c r="AJ6" s="279"/>
+      <c r="AK6" s="279"/>
+      <c r="AL6" s="279"/>
+      <c r="AM6" s="279"/>
+      <c r="AN6" s="279"/>
+      <c r="AO6" s="279"/>
+      <c r="AP6" s="279"/>
+      <c r="AQ6" s="279"/>
+      <c r="AR6" s="279"/>
+      <c r="AS6" s="279"/>
+      <c r="AT6" s="279"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -45739,15 +45766,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="269" t="s">
+      <c r="O8" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="270"/>
-      <c r="R8" s="270"/>
-      <c r="S8" s="270"/>
-      <c r="T8" s="270"/>
-      <c r="U8" s="271"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="263"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -45755,15 +45782,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="272" t="s">
+      <c r="AA8" s="264" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="273"/>
-      <c r="AC8" s="273"/>
-      <c r="AD8" s="273"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="273"/>
-      <c r="AG8" s="274"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="265"/>
+      <c r="AD8" s="265"/>
+      <c r="AE8" s="265"/>
+      <c r="AF8" s="265"/>
+      <c r="AG8" s="266"/>
       <c r="AH8" s="116"/>
       <c r="AI8" s="116"/>
       <c r="AJ8" s="116"/>
@@ -45820,13 +45847,13 @@
       <c r="N10" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
-      <c r="Q10" s="273"/>
-      <c r="R10" s="273"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="274"/>
+      <c r="O10" s="264"/>
+      <c r="P10" s="265"/>
+      <c r="Q10" s="265"/>
+      <c r="R10" s="265"/>
+      <c r="S10" s="265"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="266"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -45834,15 +45861,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="269" t="s">
+      <c r="AA10" s="261" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="270"/>
-      <c r="AC10" s="270"/>
-      <c r="AD10" s="270"/>
-      <c r="AE10" s="270"/>
-      <c r="AF10" s="270"/>
-      <c r="AG10" s="271"/>
+      <c r="AB10" s="262"/>
+      <c r="AC10" s="262"/>
+      <c r="AD10" s="262"/>
+      <c r="AE10" s="262"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -45907,11 +45934,11 @@
       <c r="I12" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="L12" s="272">
+      <c r="L12" s="264">
         <v>10</v>
       </c>
-      <c r="M12" s="273"/>
-      <c r="N12" s="274"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
       <c r="O12" s="6" t="s">
         <v>228</v>
       </c>
@@ -46012,14 +46039,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="266" t="s">
+      <c r="R14" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="267"/>
-      <c r="T14" s="267"/>
-      <c r="U14" s="267"/>
-      <c r="V14" s="267"/>
-      <c r="W14" s="268"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="259"/>
+      <c r="U14" s="259"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="260"/>
       <c r="X14" s="36" t="s">
         <v>132</v>
       </c>
@@ -46027,12 +46054,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="266" t="s">
+      <c r="AC14" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="267"/>
-      <c r="AE14" s="267"/>
-      <c r="AF14" s="268"/>
+      <c r="AD14" s="259"/>
+      <c r="AE14" s="259"/>
+      <c r="AF14" s="260"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -47464,16 +47491,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AI4"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AP4:AU4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="I6:AT6"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="AA8:AG8"/>
@@ -47481,6 +47498,16 @@
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
     <mergeCell ref="O10:U10"/>
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AP4:AU4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="I6:AT6"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AI4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Web/TaxiNet_ScreenDesign_Staff.xlsx
@@ -3213,6 +3213,13 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -3264,30 +3271,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3321,6 +3304,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3335,6 +3327,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3486,13 +3493,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5632,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5674,13 +5674,13 @@
       <c r="F3" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="335" t="s">
+      <c r="G3" s="242" t="s">
         <v>607</v>
       </c>
-      <c r="H3" s="335" t="s">
+      <c r="H3" s="242" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="335" t="s">
+      <c r="I3" s="242" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5688,7 +5688,7 @@
       <c r="A4" s="236">
         <v>1</v>
       </c>
-      <c r="B4" s="238" t="s">
+      <c r="B4" s="243" t="s">
         <v>606</v>
       </c>
       <c r="C4" s="236" t="s">
@@ -5702,14 +5702,14 @@
       </c>
       <c r="F4" s="236"/>
       <c r="G4" s="76"/>
-      <c r="H4" s="334"/>
+      <c r="H4" s="241"/>
       <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="236">
         <v>2</v>
       </c>
-      <c r="B5" s="239"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="236" t="s">
         <v>604</v>
       </c>
@@ -5721,14 +5721,14 @@
       </c>
       <c r="F5" s="236"/>
       <c r="G5" s="76"/>
-      <c r="H5" s="333"/>
+      <c r="H5" s="240"/>
       <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="236">
         <v>3</v>
       </c>
-      <c r="B6" s="239"/>
+      <c r="B6" s="244"/>
       <c r="C6" s="236" t="s">
         <v>603</v>
       </c>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="236"/>
-      <c r="B7" s="239"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="236" t="s">
         <v>602</v>
       </c>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="236"/>
-      <c r="B8" s="239"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="236" t="s">
         <v>601</v>
       </c>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="236"/>
-      <c r="B9" s="239"/>
+      <c r="B9" s="244"/>
       <c r="C9" s="236" t="s">
         <v>599</v>
       </c>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="236"/>
-      <c r="B10" s="239"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="236" t="s">
         <v>597</v>
       </c>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="236"/>
-      <c r="B11" s="239"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="236" t="s">
         <v>595</v>
       </c>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="236"/>
-      <c r="B12" s="239"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="236" t="s">
         <v>593</v>
       </c>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="236"/>
-      <c r="B13" s="239"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="236" t="s">
         <v>591</v>
       </c>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="236"/>
-      <c r="B14" s="239"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="236" t="s">
         <v>589</v>
       </c>
@@ -5881,14 +5881,14 @@
     </row>
     <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="236"/>
-      <c r="B15" s="239"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="236" t="s">
         <v>587</v>
       </c>
       <c r="D15" s="236" t="s">
         <v>586</v>
       </c>
-      <c r="E15" s="332" t="s">
+      <c r="E15" s="239" t="s">
         <v>580</v>
       </c>
       <c r="F15" s="236"/>
@@ -5898,14 +5898,14 @@
     </row>
     <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="236"/>
-      <c r="B16" s="239"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="236" t="s">
         <v>585</v>
       </c>
       <c r="D16" s="236" t="s">
         <v>584</v>
       </c>
-      <c r="E16" s="332" t="s">
+      <c r="E16" s="239" t="s">
         <v>580</v>
       </c>
       <c r="F16" s="236"/>
@@ -5915,14 +5915,14 @@
     </row>
     <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="236"/>
-      <c r="B17" s="239"/>
+      <c r="B17" s="244"/>
       <c r="C17" s="236" t="s">
         <v>583</v>
       </c>
       <c r="D17" s="236" t="s">
         <v>582</v>
       </c>
-      <c r="E17" s="332" t="s">
+      <c r="E17" s="239" t="s">
         <v>580</v>
       </c>
       <c r="F17" s="236"/>
@@ -5932,14 +5932,14 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="236"/>
-      <c r="B18" s="239"/>
+      <c r="B18" s="244"/>
       <c r="C18" s="236" t="s">
         <v>581</v>
       </c>
       <c r="D18" s="236" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="332" t="s">
+      <c r="E18" s="239" t="s">
         <v>580</v>
       </c>
       <c r="F18" s="236"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="236"/>
-      <c r="B19" s="239"/>
+      <c r="B19" s="244"/>
       <c r="C19" s="236" t="s">
         <v>579</v>
       </c>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="236"/>
-      <c r="B20" s="239"/>
+      <c r="B20" s="244"/>
       <c r="C20" s="236" t="s">
         <v>577</v>
       </c>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="236"/>
-      <c r="B21" s="239"/>
+      <c r="B21" s="244"/>
       <c r="C21" s="236" t="s">
         <v>575</v>
       </c>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="236"/>
-      <c r="B22" s="239"/>
+      <c r="B22" s="244"/>
       <c r="C22" s="236" t="s">
         <v>573</v>
       </c>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="236"/>
-      <c r="B23" s="239"/>
+      <c r="B23" s="244"/>
       <c r="C23" s="236" t="s">
         <v>571</v>
       </c>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="236"/>
-      <c r="B24" s="239"/>
+      <c r="B24" s="244"/>
       <c r="C24" s="236" t="s">
         <v>569</v>
       </c>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="236"/>
-      <c r="B25" s="239"/>
+      <c r="B25" s="244"/>
       <c r="C25" s="236" t="s">
         <v>567</v>
       </c>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="236"/>
-      <c r="B26" s="240"/>
+      <c r="B26" s="245"/>
       <c r="C26" s="236" t="s">
         <v>565</v>
       </c>
@@ -6158,15 +6158,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -6784,14 +6784,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -6829,12 +6829,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -6873,12 +6873,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -6923,50 +6923,50 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="299" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="295"/>
-      <c r="J4" s="295"/>
-      <c r="K4" s="295"/>
-      <c r="L4" s="295"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="297" t="s">
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="302" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="299" t="s">
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="303"/>
+      <c r="U4" s="304" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="299" t="s">
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="303"/>
+      <c r="AC4" s="304" t="s">
         <v>162</v>
       </c>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="299" t="s">
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="302"/>
+      <c r="AI4" s="303"/>
+      <c r="AJ4" s="304" t="s">
         <v>207</v>
       </c>
-      <c r="AK4" s="297"/>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
-      <c r="AO4" s="300"/>
+      <c r="AK4" s="302"/>
+      <c r="AL4" s="302"/>
+      <c r="AM4" s="302"/>
+      <c r="AN4" s="302"/>
+      <c r="AO4" s="305"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -7591,37 +7591,37 @@
       <c r="F21" s="48"/>
       <c r="G21" s="185"/>
       <c r="H21" s="48"/>
-      <c r="I21" s="293" t="s">
+      <c r="I21" s="298" t="s">
         <v>133</v>
       </c>
-      <c r="J21" s="293"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="293"/>
-      <c r="Q21" s="293"/>
-      <c r="R21" s="293"/>
-      <c r="S21" s="293"/>
-      <c r="T21" s="293"/>
-      <c r="U21" s="293"/>
-      <c r="V21" s="293"/>
-      <c r="W21" s="293"/>
-      <c r="X21" s="293"/>
-      <c r="Y21" s="293"/>
-      <c r="Z21" s="293"/>
-      <c r="AA21" s="293"/>
-      <c r="AB21" s="293"/>
-      <c r="AC21" s="293"/>
-      <c r="AD21" s="293"/>
-      <c r="AE21" s="293"/>
-      <c r="AF21" s="293"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="293"/>
-      <c r="AJ21" s="293"/>
-      <c r="AK21" s="293"/>
+      <c r="J21" s="298"/>
+      <c r="K21" s="298"/>
+      <c r="L21" s="298"/>
+      <c r="M21" s="298"/>
+      <c r="N21" s="298"/>
+      <c r="O21" s="298"/>
+      <c r="P21" s="298"/>
+      <c r="Q21" s="298"/>
+      <c r="R21" s="298"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="298"/>
+      <c r="V21" s="298"/>
+      <c r="W21" s="298"/>
+      <c r="X21" s="298"/>
+      <c r="Y21" s="298"/>
+      <c r="Z21" s="298"/>
+      <c r="AA21" s="298"/>
+      <c r="AB21" s="298"/>
+      <c r="AC21" s="298"/>
+      <c r="AD21" s="298"/>
+      <c r="AE21" s="298"/>
+      <c r="AF21" s="298"/>
+      <c r="AG21" s="298"/>
+      <c r="AH21" s="298"/>
+      <c r="AI21" s="298"/>
+      <c r="AJ21" s="298"/>
+      <c r="AK21" s="298"/>
       <c r="AO21" s="12"/>
     </row>
     <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -8886,15 +8886,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -9585,14 +9585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -9630,12 +9630,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -9674,12 +9674,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -9724,48 +9724,48 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="301" t="s">
+      <c r="H4" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="302" t="s">
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="308"/>
+      <c r="N4" s="307" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="302"/>
-      <c r="P4" s="302"/>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="302"/>
-      <c r="S4" s="302"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="299" t="s">
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="308"/>
+      <c r="U4" s="304" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="299" t="s">
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="303"/>
+      <c r="AC4" s="304" t="s">
         <v>162</v>
       </c>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="299"/>
-      <c r="AK4" s="297"/>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
-      <c r="AO4" s="300"/>
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="302"/>
+      <c r="AI4" s="303"/>
+      <c r="AJ4" s="304"/>
+      <c r="AK4" s="302"/>
+      <c r="AL4" s="302"/>
+      <c r="AM4" s="302"/>
+      <c r="AN4" s="302"/>
+      <c r="AO4" s="305"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -9823,16 +9823,16 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="271" t="s">
+      <c r="I6" s="268" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="272"/>
-      <c r="N6" s="272"/>
-      <c r="O6" s="272"/>
-      <c r="P6" s="273"/>
+      <c r="J6" s="269"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="269"/>
+      <c r="M6" s="269"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="269"/>
+      <c r="P6" s="270"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -11612,15 +11612,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -12179,14 +12179,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -12224,12 +12224,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -12268,12 +12268,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -12318,50 +12318,50 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="301" t="s">
+      <c r="H4" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="302" t="s">
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+      <c r="M4" s="308"/>
+      <c r="N4" s="307" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="302"/>
-      <c r="P4" s="302"/>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="302"/>
-      <c r="S4" s="302"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="304" t="s">
+      <c r="O4" s="307"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="307"/>
+      <c r="R4" s="307"/>
+      <c r="S4" s="307"/>
+      <c r="T4" s="308"/>
+      <c r="U4" s="309" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="295"/>
-      <c r="W4" s="295"/>
-      <c r="X4" s="295"/>
-      <c r="Y4" s="295"/>
-      <c r="Z4" s="295"/>
-      <c r="AA4" s="295"/>
-      <c r="AB4" s="296"/>
-      <c r="AC4" s="299" t="s">
+      <c r="V4" s="300"/>
+      <c r="W4" s="300"/>
+      <c r="X4" s="300"/>
+      <c r="Y4" s="300"/>
+      <c r="Z4" s="300"/>
+      <c r="AA4" s="300"/>
+      <c r="AB4" s="301"/>
+      <c r="AC4" s="304" t="s">
         <v>162</v>
       </c>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="299" t="s">
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="302"/>
+      <c r="AI4" s="303"/>
+      <c r="AJ4" s="304" t="s">
         <v>170</v>
       </c>
-      <c r="AK4" s="297"/>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
-      <c r="AO4" s="300"/>
+      <c r="AK4" s="302"/>
+      <c r="AL4" s="302"/>
+      <c r="AM4" s="302"/>
+      <c r="AN4" s="302"/>
+      <c r="AO4" s="305"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -12419,16 +12419,16 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="268" t="s">
+      <c r="I6" s="265" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="269"/>
-      <c r="K6" s="269"/>
-      <c r="L6" s="269"/>
-      <c r="M6" s="269"/>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269"/>
-      <c r="P6" s="270"/>
+      <c r="J6" s="266"/>
+      <c r="K6" s="266"/>
+      <c r="L6" s="266"/>
+      <c r="M6" s="266"/>
+      <c r="N6" s="266"/>
+      <c r="O6" s="266"/>
+      <c r="P6" s="267"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -12585,7 +12585,7 @@
       <c r="AG9" s="51"/>
       <c r="AH9" s="48"/>
       <c r="AI9" s="48"/>
-      <c r="AJ9" s="331" t="s">
+      <c r="AJ9" s="238" t="s">
         <v>278</v>
       </c>
       <c r="AK9" s="48"/>
@@ -14219,15 +14219,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -14781,14 +14781,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="264"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -14834,12 +14834,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8"/>
@@ -14884,12 +14884,12 @@
       <c r="AU2" s="171"/>
     </row>
     <row r="3" spans="2:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
       <c r="H3" s="13"/>
       <c r="I3" s="186"/>
       <c r="J3" s="13"/>
@@ -14933,13 +14933,13 @@
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="174"/>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="296" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="297"/>
       <c r="H4" s="276"/>
       <c r="I4" s="277"/>
       <c r="J4" s="277"/>
@@ -14947,39 +14947,39 @@
       <c r="L4" s="277"/>
       <c r="M4" s="277"/>
       <c r="N4" s="278"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="259"/>
-      <c r="AA4" s="259"/>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="259"/>
-      <c r="AF4" s="259"/>
-      <c r="AG4" s="259"/>
-      <c r="AH4" s="259"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="258"/>
-      <c r="AK4" s="259"/>
-      <c r="AL4" s="259"/>
-      <c r="AM4" s="259"/>
-      <c r="AN4" s="259"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="258"/>
-      <c r="AQ4" s="259"/>
-      <c r="AR4" s="259"/>
-      <c r="AS4" s="259"/>
-      <c r="AT4" s="259"/>
-      <c r="AU4" s="261"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="273"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="273"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="282"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -15041,46 +15041,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="262" t="s">
+      <c r="I6" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="262"/>
-      <c r="U6" s="262"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="262"/>
-      <c r="AO6" s="262"/>
-      <c r="AP6" s="262"/>
-      <c r="AQ6" s="262"/>
-      <c r="AR6" s="262"/>
-      <c r="AS6" s="262"/>
-      <c r="AT6" s="262"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="283"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="283"/>
+      <c r="Z6" s="283"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="283"/>
+      <c r="AE6" s="283"/>
+      <c r="AF6" s="283"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="283"/>
+      <c r="AJ6" s="283"/>
+      <c r="AK6" s="283"/>
+      <c r="AL6" s="283"/>
+      <c r="AM6" s="283"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15141,13 +15141,13 @@
       <c r="N8" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="O8" s="268"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="270"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -15155,13 +15155,13 @@
       <c r="Z8" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="271"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="273"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="270"/>
       <c r="AH8" s="148"/>
       <c r="AI8" s="148"/>
       <c r="AJ8" s="148"/>
@@ -15218,15 +15218,15 @@
       <c r="N10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="268" t="s">
+      <c r="O10" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="P10" s="269"/>
-      <c r="Q10" s="269"/>
-      <c r="R10" s="269"/>
-      <c r="S10" s="269"/>
-      <c r="T10" s="269"/>
-      <c r="U10" s="270"/>
+      <c r="P10" s="266"/>
+      <c r="Q10" s="266"/>
+      <c r="R10" s="266"/>
+      <c r="S10" s="266"/>
+      <c r="T10" s="266"/>
+      <c r="U10" s="267"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -15234,15 +15234,15 @@
       <c r="Z10" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="AA10" s="268" t="s">
+      <c r="AA10" s="265" t="s">
         <v>96</v>
       </c>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="270"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="266"/>
+      <c r="AF10" s="266"/>
+      <c r="AG10" s="267"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -15394,14 +15394,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="265" t="s">
+      <c r="R14" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="264"/>
       <c r="X14" s="36" t="s">
         <v>132</v>
       </c>
@@ -15409,12 +15409,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="265" t="s">
+      <c r="AC14" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="266"/>
-      <c r="AE14" s="266"/>
-      <c r="AF14" s="267"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="264"/>
       <c r="AG14" s="142" t="s">
         <v>173</v>
       </c>
@@ -16795,22 +16795,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AD4:AI4"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="AJ4:AO4"/>
     <mergeCell ref="AP4:AU4"/>
     <mergeCell ref="I6:AT6"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="AA8:AG8"/>
     <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AD4:AI4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -16847,15 +16847,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -17451,14 +17451,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -17496,12 +17496,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -17540,12 +17540,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -17590,40 +17590,40 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="305"/>
-      <c r="V4" s="306"/>
-      <c r="W4" s="306"/>
-      <c r="X4" s="306"/>
-      <c r="Y4" s="306"/>
-      <c r="Z4" s="306"/>
-      <c r="AA4" s="306"/>
-      <c r="AB4" s="311"/>
-      <c r="AC4" s="305"/>
-      <c r="AD4" s="306"/>
-      <c r="AE4" s="306"/>
-      <c r="AF4" s="306"/>
-      <c r="AG4" s="306"/>
-      <c r="AH4" s="306"/>
-      <c r="AI4" s="311"/>
-      <c r="AJ4" s="305"/>
-      <c r="AK4" s="306"/>
-      <c r="AL4" s="306"/>
-      <c r="AM4" s="306"/>
-      <c r="AN4" s="306"/>
-      <c r="AO4" s="307"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="316"/>
+      <c r="U4" s="310"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="311"/>
+      <c r="AB4" s="316"/>
+      <c r="AC4" s="310"/>
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="311"/>
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="310"/>
+      <c r="AK4" s="311"/>
+      <c r="AL4" s="311"/>
+      <c r="AM4" s="311"/>
+      <c r="AN4" s="311"/>
+      <c r="AO4" s="312"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -19510,22 +19510,22 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="241" t="s">
+      <c r="M1" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="241"/>
-      <c r="O1" s="241"/>
-      <c r="P1" s="241"/>
-      <c r="Q1" s="241"/>
-      <c r="R1" s="241"/>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="246"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -20804,15 +20804,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -21442,14 +21442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -21487,12 +21487,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -21531,12 +21531,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -21581,40 +21581,40 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="305"/>
-      <c r="V4" s="306"/>
-      <c r="W4" s="306"/>
-      <c r="X4" s="306"/>
-      <c r="Y4" s="306"/>
-      <c r="Z4" s="306"/>
-      <c r="AA4" s="306"/>
-      <c r="AB4" s="311"/>
-      <c r="AC4" s="305"/>
-      <c r="AD4" s="306"/>
-      <c r="AE4" s="306"/>
-      <c r="AF4" s="306"/>
-      <c r="AG4" s="306"/>
-      <c r="AH4" s="306"/>
-      <c r="AI4" s="311"/>
-      <c r="AJ4" s="305"/>
-      <c r="AK4" s="306"/>
-      <c r="AL4" s="306"/>
-      <c r="AM4" s="306"/>
-      <c r="AN4" s="306"/>
-      <c r="AO4" s="307"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="316"/>
+      <c r="U4" s="310"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="311"/>
+      <c r="AB4" s="316"/>
+      <c r="AC4" s="310"/>
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="311"/>
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="310"/>
+      <c r="AK4" s="311"/>
+      <c r="AL4" s="311"/>
+      <c r="AM4" s="311"/>
+      <c r="AN4" s="311"/>
+      <c r="AO4" s="312"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -21681,30 +21681,30 @@
       <c r="O6" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="249" t="s">
+      <c r="P6" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="250"/>
-      <c r="R6" s="250"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="250"/>
-      <c r="X6" s="251"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
+      <c r="U6" s="255"/>
+      <c r="V6" s="255"/>
+      <c r="W6" s="255"/>
+      <c r="X6" s="256"/>
       <c r="Y6" s="207" t="s">
         <v>203</v>
       </c>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="271" t="s">
+      <c r="AA6" s="268" t="s">
         <v>200</v>
       </c>
-      <c r="AB6" s="272"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="273"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="270"/>
       <c r="AH6" s="207" t="s">
         <v>203</v>
       </c>
@@ -21734,17 +21734,17 @@
       <c r="O7" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="268" t="s">
+      <c r="P7" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="270"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="266"/>
+      <c r="T7" s="266"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="267"/>
       <c r="Y7" s="207" t="s">
         <v>203</v>
       </c>
@@ -21775,17 +21775,17 @@
       <c r="O8" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="249" t="s">
+      <c r="P8" s="254" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="251"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="255"/>
+      <c r="T8" s="255"/>
+      <c r="U8" s="255"/>
+      <c r="V8" s="255"/>
+      <c r="W8" s="255"/>
+      <c r="X8" s="256"/>
       <c r="Y8" s="207" t="s">
         <v>203</v>
       </c>
@@ -21827,17 +21827,17 @@
       <c r="O9" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="315" t="s">
+      <c r="P9" s="320" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="316"/>
-      <c r="R9" s="316"/>
-      <c r="S9" s="316"/>
-      <c r="T9" s="316"/>
-      <c r="U9" s="316"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="316"/>
-      <c r="X9" s="317"/>
+      <c r="Q9" s="321"/>
+      <c r="R9" s="321"/>
+      <c r="S9" s="321"/>
+      <c r="T9" s="321"/>
+      <c r="U9" s="321"/>
+      <c r="V9" s="321"/>
+      <c r="W9" s="321"/>
+      <c r="X9" s="322"/>
       <c r="Y9" s="207" t="s">
         <v>203</v>
       </c>
@@ -21879,17 +21879,17 @@
       <c r="O10" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="312" t="s">
+      <c r="P10" s="317" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="313"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="313"/>
-      <c r="T10" s="313"/>
-      <c r="U10" s="313"/>
-      <c r="V10" s="313"/>
-      <c r="W10" s="313"/>
-      <c r="X10" s="314"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="318"/>
+      <c r="S10" s="318"/>
+      <c r="T10" s="318"/>
+      <c r="U10" s="318"/>
+      <c r="V10" s="318"/>
+      <c r="W10" s="318"/>
+      <c r="X10" s="319"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
       <c r="AA10" s="51"/>
@@ -21927,19 +21927,19 @@
       <c r="O11" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="318" t="s">
+      <c r="P11" s="323" t="s">
         <v>190</v>
       </c>
-      <c r="Q11" s="319"/>
-      <c r="R11" s="249">
+      <c r="Q11" s="324"/>
+      <c r="R11" s="254">
         <v>912210727</v>
       </c>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="251"/>
+      <c r="S11" s="255"/>
+      <c r="T11" s="255"/>
+      <c r="U11" s="255"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="255"/>
+      <c r="X11" s="256"/>
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
       <c r="AA11" s="51"/>
@@ -21963,17 +21963,17 @@
       <c r="O12" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="P12" s="268" t="s">
+      <c r="P12" s="265" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="269"/>
-      <c r="R12" s="269"/>
-      <c r="S12" s="269"/>
-      <c r="T12" s="269"/>
-      <c r="U12" s="269"/>
-      <c r="V12" s="269"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="270"/>
+      <c r="Q12" s="266"/>
+      <c r="R12" s="266"/>
+      <c r="S12" s="266"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="266"/>
+      <c r="V12" s="266"/>
+      <c r="W12" s="266"/>
+      <c r="X12" s="267"/>
       <c r="Y12" s="207" t="s">
         <v>203</v>
       </c>
@@ -22005,17 +22005,17 @@
       <c r="O13" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="312" t="s">
+      <c r="P13" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="313"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="313"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="314"/>
+      <c r="Q13" s="318"/>
+      <c r="R13" s="318"/>
+      <c r="S13" s="318"/>
+      <c r="T13" s="318"/>
+      <c r="U13" s="318"/>
+      <c r="V13" s="318"/>
+      <c r="W13" s="318"/>
+      <c r="X13" s="319"/>
       <c r="Y13" s="207" t="s">
         <v>203</v>
       </c>
@@ -23498,6 +23498,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AA6:AG6"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="P13:X13"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="P9:X9"/>
@@ -23506,14 +23514,6 @@
     <mergeCell ref="P10:X10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:X11"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AA6:AG6"/>
-    <mergeCell ref="P12:X12"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7">
@@ -23558,15 +23558,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -24197,14 +24197,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -24242,12 +24242,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -24286,12 +24286,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -24336,40 +24336,40 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="308"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="310"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="305"/>
-      <c r="V4" s="306"/>
-      <c r="W4" s="306"/>
-      <c r="X4" s="306"/>
-      <c r="Y4" s="306"/>
-      <c r="Z4" s="306"/>
-      <c r="AA4" s="306"/>
-      <c r="AB4" s="311"/>
-      <c r="AC4" s="305"/>
-      <c r="AD4" s="306"/>
-      <c r="AE4" s="306"/>
-      <c r="AF4" s="306"/>
-      <c r="AG4" s="306"/>
-      <c r="AH4" s="306"/>
-      <c r="AI4" s="311"/>
-      <c r="AJ4" s="305"/>
-      <c r="AK4" s="306"/>
-      <c r="AL4" s="306"/>
-      <c r="AM4" s="306"/>
-      <c r="AN4" s="306"/>
-      <c r="AO4" s="307"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="316"/>
+      <c r="U4" s="310"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="311"/>
+      <c r="AB4" s="316"/>
+      <c r="AC4" s="310"/>
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="311"/>
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="316"/>
+      <c r="AJ4" s="310"/>
+      <c r="AK4" s="311"/>
+      <c r="AL4" s="311"/>
+      <c r="AM4" s="311"/>
+      <c r="AN4" s="311"/>
+      <c r="AO4" s="312"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -24436,28 +24436,28 @@
       <c r="O6" s="130" t="s">
         <v>182</v>
       </c>
-      <c r="P6" s="249" t="s">
+      <c r="P6" s="254" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="250"/>
-      <c r="R6" s="250"/>
-      <c r="S6" s="250"/>
-      <c r="T6" s="250"/>
-      <c r="U6" s="250"/>
-      <c r="V6" s="250"/>
-      <c r="W6" s="250"/>
-      <c r="X6" s="251"/>
+      <c r="Q6" s="255"/>
+      <c r="R6" s="255"/>
+      <c r="S6" s="255"/>
+      <c r="T6" s="255"/>
+      <c r="U6" s="255"/>
+      <c r="V6" s="255"/>
+      <c r="W6" s="255"/>
+      <c r="X6" s="256"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="271" t="s">
+      <c r="Z6" s="268" t="s">
         <v>200</v>
       </c>
-      <c r="AA6" s="272"/>
-      <c r="AB6" s="272"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="272"/>
-      <c r="AE6" s="272"/>
-      <c r="AF6" s="272"/>
-      <c r="AG6" s="273"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="269"/>
+      <c r="AE6" s="269"/>
+      <c r="AF6" s="269"/>
+      <c r="AG6" s="270"/>
       <c r="AH6" s="11"/>
       <c r="AI6" s="11"/>
       <c r="AJ6" s="11"/>
@@ -24485,17 +24485,17 @@
       <c r="O7" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="P7" s="268" t="s">
+      <c r="P7" s="265" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="269"/>
-      <c r="R7" s="269"/>
-      <c r="S7" s="269"/>
-      <c r="T7" s="269"/>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="270"/>
+      <c r="Q7" s="266"/>
+      <c r="R7" s="266"/>
+      <c r="S7" s="266"/>
+      <c r="T7" s="266"/>
+      <c r="U7" s="266"/>
+      <c r="V7" s="266"/>
+      <c r="W7" s="266"/>
+      <c r="X7" s="267"/>
       <c r="Y7" s="6" t="s">
         <v>198</v>
       </c>
@@ -24526,17 +24526,17 @@
       <c r="O8" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="249" t="s">
+      <c r="P8" s="254" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="251"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="255"/>
+      <c r="S8" s="255"/>
+      <c r="T8" s="255"/>
+      <c r="U8" s="255"/>
+      <c r="V8" s="255"/>
+      <c r="W8" s="255"/>
+      <c r="X8" s="256"/>
       <c r="Y8" s="51" t="s">
         <v>198</v>
       </c>
@@ -24566,17 +24566,17 @@
       <c r="O9" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="315" t="s">
+      <c r="P9" s="320" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="316"/>
-      <c r="R9" s="316"/>
-      <c r="S9" s="316"/>
-      <c r="T9" s="316"/>
-      <c r="U9" s="316"/>
-      <c r="V9" s="316"/>
-      <c r="W9" s="316"/>
-      <c r="X9" s="317"/>
+      <c r="Q9" s="321"/>
+      <c r="R9" s="321"/>
+      <c r="S9" s="321"/>
+      <c r="T9" s="321"/>
+      <c r="U9" s="321"/>
+      <c r="V9" s="321"/>
+      <c r="W9" s="321"/>
+      <c r="X9" s="322"/>
       <c r="Y9" s="48" t="s">
         <v>198</v>
       </c>
@@ -24606,17 +24606,17 @@
       <c r="O10" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="P10" s="320" t="s">
+      <c r="P10" s="325" t="s">
         <v>98</v>
       </c>
-      <c r="Q10" s="320"/>
-      <c r="R10" s="320"/>
-      <c r="S10" s="320"/>
-      <c r="T10" s="320"/>
-      <c r="U10" s="320"/>
-      <c r="V10" s="320"/>
-      <c r="W10" s="320"/>
-      <c r="X10" s="320"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="325"/>
+      <c r="S10" s="325"/>
+      <c r="T10" s="325"/>
+      <c r="U10" s="325"/>
+      <c r="V10" s="325"/>
+      <c r="W10" s="325"/>
+      <c r="X10" s="325"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="51"/>
       <c r="AA10" s="51"/>
@@ -24654,19 +24654,19 @@
       <c r="O11" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="318" t="s">
+      <c r="P11" s="323" t="s">
         <v>190</v>
       </c>
-      <c r="Q11" s="319"/>
-      <c r="R11" s="249">
+      <c r="Q11" s="324"/>
+      <c r="R11" s="254">
         <v>912210727</v>
       </c>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="251"/>
+      <c r="S11" s="255"/>
+      <c r="T11" s="255"/>
+      <c r="U11" s="255"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="255"/>
+      <c r="X11" s="256"/>
       <c r="Y11" s="51"/>
       <c r="Z11" s="51"/>
       <c r="AA11" s="51"/>
@@ -24704,17 +24704,17 @@
       <c r="O12" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="P12" s="272" t="s">
+      <c r="P12" s="269" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="272"/>
-      <c r="R12" s="272"/>
-      <c r="S12" s="272"/>
-      <c r="T12" s="272"/>
-      <c r="U12" s="272"/>
-      <c r="V12" s="272"/>
-      <c r="W12" s="272"/>
-      <c r="X12" s="272"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="269"/>
+      <c r="S12" s="269"/>
+      <c r="T12" s="269"/>
+      <c r="U12" s="269"/>
+      <c r="V12" s="269"/>
+      <c r="W12" s="269"/>
+      <c r="X12" s="269"/>
       <c r="Y12" s="51" t="s">
         <v>189</v>
       </c>
@@ -24754,17 +24754,17 @@
       <c r="O13" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="312" t="s">
+      <c r="P13" s="317" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="313"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="313"/>
-      <c r="T13" s="313"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="313"/>
-      <c r="W13" s="313"/>
-      <c r="X13" s="314"/>
+      <c r="Q13" s="318"/>
+      <c r="R13" s="318"/>
+      <c r="S13" s="318"/>
+      <c r="T13" s="318"/>
+      <c r="U13" s="318"/>
+      <c r="V13" s="318"/>
+      <c r="W13" s="318"/>
+      <c r="X13" s="319"/>
       <c r="Y13" s="51" t="s">
         <v>198</v>
       </c>
@@ -26239,6 +26239,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="P12:X12"/>
+    <mergeCell ref="Z6:AG6"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
     <mergeCell ref="P13:X13"/>
     <mergeCell ref="P6:X6"/>
     <mergeCell ref="P9:X9"/>
@@ -26247,14 +26255,6 @@
     <mergeCell ref="P10:X10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:X11"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="P12:X12"/>
-    <mergeCell ref="Z6:AG6"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22 K26:L26">
@@ -26299,15 +26299,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -26944,14 +26944,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="264"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -26997,12 +26997,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -27047,12 +27047,12 @@
       <c r="AU2" s="171"/>
     </row>
     <row r="3" spans="2:47" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -27110,39 +27110,39 @@
       <c r="L4" s="277"/>
       <c r="M4" s="277"/>
       <c r="N4" s="278"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="259"/>
-      <c r="AA4" s="259"/>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="259"/>
-      <c r="AF4" s="259"/>
-      <c r="AG4" s="259"/>
-      <c r="AH4" s="259"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="258"/>
-      <c r="AK4" s="259"/>
-      <c r="AL4" s="259"/>
-      <c r="AM4" s="259"/>
-      <c r="AN4" s="259"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="258"/>
-      <c r="AQ4" s="259"/>
-      <c r="AR4" s="259"/>
-      <c r="AS4" s="259"/>
-      <c r="AT4" s="259"/>
-      <c r="AU4" s="261"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="273"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="273"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="282"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -27204,46 +27204,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="262" t="s">
+      <c r="I6" s="283" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="262"/>
-      <c r="U6" s="262"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="262"/>
-      <c r="AO6" s="262"/>
-      <c r="AP6" s="262"/>
-      <c r="AQ6" s="262"/>
-      <c r="AR6" s="262"/>
-      <c r="AS6" s="262"/>
-      <c r="AT6" s="262"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="283"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="283"/>
+      <c r="Z6" s="283"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="283"/>
+      <c r="AE6" s="283"/>
+      <c r="AF6" s="283"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="283"/>
+      <c r="AJ6" s="283"/>
+      <c r="AK6" s="283"/>
+      <c r="AL6" s="283"/>
+      <c r="AM6" s="283"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -27304,15 +27304,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="270"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -27320,15 +27320,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="271" t="s">
+      <c r="AA8" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="273"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="270"/>
       <c r="AH8" s="148"/>
       <c r="AI8" s="148"/>
       <c r="AJ8" s="148"/>
@@ -27385,13 +27385,13 @@
       <c r="N10" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="O10" s="271"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="273"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="269"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="269"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="270"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -27399,15 +27399,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="268" t="s">
+      <c r="AA10" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="270"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="266"/>
+      <c r="AF10" s="266"/>
+      <c r="AG10" s="267"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -27472,11 +27472,11 @@
       <c r="I12" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="271">
+      <c r="L12" s="268">
         <v>10</v>
       </c>
-      <c r="M12" s="272"/>
-      <c r="N12" s="273"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="270"/>
       <c r="O12" s="6" t="s">
         <v>231</v>
       </c>
@@ -27579,14 +27579,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="265" t="s">
+      <c r="R14" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="264"/>
       <c r="X14" s="36" t="s">
         <v>241</v>
       </c>
@@ -27594,12 +27594,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="265" t="s">
+      <c r="AC14" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="266"/>
-      <c r="AE14" s="266"/>
-      <c r="AF14" s="267"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="264"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -28190,53 +28190,53 @@
       <c r="B31" s="213">
         <v>1</v>
       </c>
-      <c r="C31" s="255" t="s">
+      <c r="C31" s="279" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="256"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="256"/>
-      <c r="M31" s="256"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="256"/>
-      <c r="S31" s="256"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="256"/>
-      <c r="V31" s="256"/>
-      <c r="W31" s="256"/>
-      <c r="X31" s="256"/>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="256"/>
-      <c r="AA31" s="256"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="256"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="256"/>
-      <c r="AJ31" s="256"/>
-      <c r="AK31" s="256"/>
-      <c r="AL31" s="256"/>
-      <c r="AM31" s="256"/>
-      <c r="AN31" s="256"/>
-      <c r="AO31" s="256"/>
-      <c r="AP31" s="256"/>
-      <c r="AQ31" s="256"/>
-      <c r="AR31" s="256"/>
-      <c r="AS31" s="256"/>
-      <c r="AT31" s="256"/>
-      <c r="AU31" s="257"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="280"/>
+      <c r="Q31" s="280"/>
+      <c r="R31" s="280"/>
+      <c r="S31" s="280"/>
+      <c r="T31" s="280"/>
+      <c r="U31" s="280"/>
+      <c r="V31" s="280"/>
+      <c r="W31" s="280"/>
+      <c r="X31" s="280"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="280"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="280"/>
+      <c r="AE31" s="280"/>
+      <c r="AF31" s="280"/>
+      <c r="AG31" s="280"/>
+      <c r="AH31" s="280"/>
+      <c r="AI31" s="280"/>
+      <c r="AJ31" s="280"/>
+      <c r="AK31" s="280"/>
+      <c r="AL31" s="280"/>
+      <c r="AM31" s="280"/>
+      <c r="AN31" s="280"/>
+      <c r="AO31" s="280"/>
+      <c r="AP31" s="280"/>
+      <c r="AQ31" s="280"/>
+      <c r="AR31" s="280"/>
+      <c r="AS31" s="280"/>
+      <c r="AT31" s="280"/>
+      <c r="AU31" s="281"/>
     </row>
     <row r="32" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="213">
@@ -28985,11 +28985,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
     <mergeCell ref="C31:AU31"/>
     <mergeCell ref="AD4:AI4"/>
     <mergeCell ref="AJ4:AO4"/>
@@ -29003,6 +28998,11 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -29038,15 +29038,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -29678,14 +29678,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -29723,12 +29723,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -29767,12 +29767,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -29817,44 +29817,44 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="295"/>
-      <c r="J4" s="295"/>
-      <c r="K4" s="295"/>
-      <c r="L4" s="295"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="297" t="s">
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="302" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="299"/>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="299"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="299"/>
-      <c r="AK4" s="297"/>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
-      <c r="AO4" s="300"/>
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="303"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="303"/>
+      <c r="AC4" s="304"/>
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="302"/>
+      <c r="AI4" s="303"/>
+      <c r="AJ4" s="304"/>
+      <c r="AK4" s="302"/>
+      <c r="AL4" s="302"/>
+      <c r="AM4" s="302"/>
+      <c r="AN4" s="302"/>
+      <c r="AO4" s="305"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="126"/>
@@ -31536,15 +31536,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -32183,14 +32183,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -32225,12 +32225,12 @@
       <c r="AL1" s="12"/>
     </row>
     <row r="2" spans="2:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -32266,12 +32266,12 @@
       <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="2:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -32313,41 +32313,41 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="295"/>
-      <c r="J4" s="295"/>
-      <c r="K4" s="295"/>
-      <c r="L4" s="295"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="297" t="s">
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="302" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="297" t="s">
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="303"/>
+      <c r="U4" s="302" t="s">
         <v>292</v>
       </c>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="297" t="s">
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="303"/>
+      <c r="AB4" s="302" t="s">
         <v>293</v>
       </c>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="298"/>
+      <c r="AC4" s="302"/>
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="303"/>
       <c r="AI4" s="124"/>
       <c r="AJ4" s="124"/>
       <c r="AK4" s="124"/>
@@ -32445,23 +32445,23 @@
         <v>246</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="321" t="s">
+      <c r="K7" s="326" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="322"/>
-      <c r="M7" s="323"/>
+      <c r="L7" s="327"/>
+      <c r="M7" s="328"/>
       <c r="N7" s="6" t="s">
         <v>257</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="S7" s="271">
+      <c r="S7" s="268">
         <v>2014</v>
       </c>
-      <c r="T7" s="272"/>
-      <c r="U7" s="272"/>
-      <c r="V7" s="273"/>
+      <c r="T7" s="269"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="270"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
@@ -33718,14 +33718,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -33762,12 +33762,12 @@
       <c r="AO1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -33804,12 +33804,12 @@
       <c r="AO2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -33846,12 +33846,12 @@
       <c r="AO3" s="12"/>
     </row>
     <row r="4" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="243"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="245"/>
+      <c r="B4" s="248"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="250"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -33881,19 +33881,19 @@
       <c r="AH4" s="11"/>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="11"/>
-      <c r="AK4" s="242"/>
-      <c r="AL4" s="242"/>
-      <c r="AM4" s="242"/>
-      <c r="AN4" s="242"/>
+      <c r="AK4" s="247"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="247"/>
+      <c r="AN4" s="247"/>
       <c r="AO4" s="12"/>
     </row>
     <row r="5" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="246"/>
-      <c r="C5" s="247"/>
-      <c r="D5" s="247"/>
-      <c r="E5" s="247"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="248"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -34140,24 +34140,24 @@
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
-      <c r="N11" s="249" t="s">
+      <c r="N11" s="254" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="250"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="250"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="250"/>
-      <c r="Y11" s="250"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="250"/>
-      <c r="AB11" s="250"/>
-      <c r="AC11" s="251"/>
+      <c r="O11" s="255"/>
+      <c r="P11" s="255"/>
+      <c r="Q11" s="255"/>
+      <c r="R11" s="255"/>
+      <c r="S11" s="255"/>
+      <c r="T11" s="255"/>
+      <c r="U11" s="255"/>
+      <c r="V11" s="255"/>
+      <c r="W11" s="255"/>
+      <c r="X11" s="255"/>
+      <c r="Y11" s="255"/>
+      <c r="Z11" s="255"/>
+      <c r="AA11" s="255"/>
+      <c r="AB11" s="255"/>
+      <c r="AC11" s="256"/>
       <c r="AD11" s="51"/>
       <c r="AE11" s="51"/>
       <c r="AF11" s="51"/>
@@ -34254,24 +34254,24 @@
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
-      <c r="N14" s="249" t="s">
+      <c r="N14" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="250"/>
-      <c r="P14" s="250"/>
-      <c r="Q14" s="250"/>
-      <c r="R14" s="250"/>
-      <c r="S14" s="250"/>
-      <c r="T14" s="250"/>
-      <c r="U14" s="250"/>
-      <c r="V14" s="250"/>
-      <c r="W14" s="250"/>
-      <c r="X14" s="250"/>
-      <c r="Y14" s="250"/>
-      <c r="Z14" s="250"/>
-      <c r="AA14" s="250"/>
-      <c r="AB14" s="250"/>
-      <c r="AC14" s="251"/>
+      <c r="O14" s="255"/>
+      <c r="P14" s="255"/>
+      <c r="Q14" s="255"/>
+      <c r="R14" s="255"/>
+      <c r="S14" s="255"/>
+      <c r="T14" s="255"/>
+      <c r="U14" s="255"/>
+      <c r="V14" s="255"/>
+      <c r="W14" s="255"/>
+      <c r="X14" s="255"/>
+      <c r="Y14" s="255"/>
+      <c r="Z14" s="255"/>
+      <c r="AA14" s="255"/>
+      <c r="AB14" s="255"/>
+      <c r="AC14" s="256"/>
       <c r="AD14" s="51"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
@@ -34819,15 +34819,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -35362,14 +35362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -35406,12 +35406,12 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -35449,12 +35449,12 @@
       <c r="AN2" s="12"/>
     </row>
     <row r="3" spans="2:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -35498,41 +35498,41 @@
       <c r="E4" s="122"/>
       <c r="F4" s="122"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="295"/>
-      <c r="J4" s="295"/>
-      <c r="K4" s="295"/>
-      <c r="L4" s="295"/>
-      <c r="M4" s="296"/>
-      <c r="N4" s="297" t="s">
+      <c r="I4" s="300"/>
+      <c r="J4" s="300"/>
+      <c r="K4" s="300"/>
+      <c r="L4" s="300"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="302" t="s">
         <v>245</v>
       </c>
-      <c r="O4" s="297"/>
-      <c r="P4" s="297"/>
-      <c r="Q4" s="297"/>
-      <c r="R4" s="297"/>
-      <c r="S4" s="297"/>
-      <c r="T4" s="298"/>
-      <c r="U4" s="297" t="s">
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="303"/>
+      <c r="U4" s="302" t="s">
         <v>292</v>
       </c>
-      <c r="V4" s="297"/>
-      <c r="W4" s="297"/>
-      <c r="X4" s="297"/>
-      <c r="Y4" s="297"/>
-      <c r="Z4" s="297"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="297" t="s">
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="303"/>
+      <c r="AB4" s="302" t="s">
         <v>293</v>
       </c>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="298"/>
+      <c r="AC4" s="302"/>
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
+      <c r="AH4" s="303"/>
       <c r="AI4" s="124"/>
       <c r="AJ4" s="124"/>
       <c r="AK4" s="124"/>
@@ -35615,21 +35615,21 @@
       <c r="I7" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="L7" s="271"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="272"/>
-      <c r="P7" s="273"/>
+      <c r="L7" s="268"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
       <c r="U7" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="X7" s="271"/>
-      <c r="Y7" s="272"/>
-      <c r="Z7" s="272"/>
-      <c r="AA7" s="272"/>
-      <c r="AB7" s="272"/>
-      <c r="AC7" s="272"/>
-      <c r="AD7" s="273"/>
+      <c r="X7" s="268"/>
+      <c r="Y7" s="269"/>
+      <c r="Z7" s="269"/>
+      <c r="AA7" s="269"/>
+      <c r="AB7" s="269"/>
+      <c r="AC7" s="269"/>
+      <c r="AD7" s="270"/>
       <c r="AM7" s="11"/>
       <c r="AN7" s="12"/>
     </row>
@@ -35656,11 +35656,11 @@
         <v>246</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="321">
+      <c r="K9" s="326">
         <v>10</v>
       </c>
-      <c r="L9" s="322"/>
-      <c r="M9" s="323"/>
+      <c r="L9" s="327"/>
+      <c r="M9" s="328"/>
       <c r="N9" s="6" t="s">
         <v>277</v>
       </c>
@@ -36030,9 +36030,9 @@
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
-      <c r="K17" s="330"/>
-      <c r="L17" s="330"/>
-      <c r="M17" s="330"/>
+      <c r="K17" s="335"/>
+      <c r="L17" s="335"/>
+      <c r="M17" s="335"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
       <c r="P17" s="51"/>
@@ -36145,11 +36145,11 @@
     </row>
     <row r="20" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="50"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="324"/>
-      <c r="G20" s="325"/>
+      <c r="C20" s="329"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="329"/>
+      <c r="G20" s="330"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
@@ -36186,11 +36186,11 @@
     </row>
     <row r="21" spans="2:44" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="50"/>
-      <c r="C21" s="326"/>
-      <c r="D21" s="326"/>
-      <c r="E21" s="326"/>
-      <c r="F21" s="326"/>
-      <c r="G21" s="327"/>
+      <c r="C21" s="331"/>
+      <c r="D21" s="331"/>
+      <c r="E21" s="331"/>
+      <c r="F21" s="331"/>
+      <c r="G21" s="332"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="52"/>
@@ -36227,11 +36227,11 @@
     </row>
     <row r="22" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="50"/>
-      <c r="C22" s="326"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="328"/>
-      <c r="G22" s="329"/>
+      <c r="C22" s="331"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="333"/>
+      <c r="G22" s="334"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -37040,18 +37040,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="U4:AA4"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="X7:AD7"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="K17:M17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17:M17 K9:M9">
@@ -37091,15 +37091,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -37714,14 +37714,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -37762,12 +37762,12 @@
       <c r="AR1" s="12"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -37817,41 +37817,41 @@
       <c r="E3" s="122"/>
       <c r="F3" s="122"/>
       <c r="G3" s="123"/>
-      <c r="H3" s="294" t="s">
+      <c r="H3" s="299" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="296"/>
-      <c r="N3" s="297" t="s">
+      <c r="I3" s="300"/>
+      <c r="J3" s="300"/>
+      <c r="K3" s="300"/>
+      <c r="L3" s="300"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="302" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="297"/>
-      <c r="P3" s="297"/>
-      <c r="Q3" s="297"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="297"/>
-      <c r="T3" s="298"/>
-      <c r="U3" s="297" t="s">
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="302"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="303"/>
+      <c r="U3" s="302" t="s">
         <v>292</v>
       </c>
-      <c r="V3" s="297"/>
-      <c r="W3" s="297"/>
-      <c r="X3" s="297"/>
-      <c r="Y3" s="297"/>
-      <c r="Z3" s="297"/>
-      <c r="AA3" s="298"/>
-      <c r="AB3" s="297" t="s">
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
+      <c r="X3" s="302"/>
+      <c r="Y3" s="302"/>
+      <c r="Z3" s="302"/>
+      <c r="AA3" s="303"/>
+      <c r="AB3" s="302" t="s">
         <v>293</v>
       </c>
-      <c r="AC3" s="297"/>
-      <c r="AD3" s="297"/>
-      <c r="AE3" s="297"/>
-      <c r="AF3" s="297"/>
-      <c r="AG3" s="297"/>
-      <c r="AH3" s="298"/>
+      <c r="AC3" s="302"/>
+      <c r="AD3" s="302"/>
+      <c r="AE3" s="302"/>
+      <c r="AF3" s="302"/>
+      <c r="AG3" s="302"/>
+      <c r="AH3" s="303"/>
       <c r="AI3" s="124"/>
       <c r="AJ3" s="124"/>
       <c r="AK3" s="124"/>
@@ -37987,20 +37987,20 @@
       <c r="K7" s="117" t="s">
         <v>280</v>
       </c>
-      <c r="L7" s="271"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
-      <c r="O7" s="272"/>
-      <c r="P7" s="273"/>
+      <c r="L7" s="268"/>
+      <c r="M7" s="269"/>
+      <c r="N7" s="269"/>
+      <c r="O7" s="269"/>
+      <c r="P7" s="270"/>
       <c r="S7" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="T7" s="271"/>
-      <c r="U7" s="272"/>
-      <c r="V7" s="272"/>
-      <c r="W7" s="272"/>
-      <c r="X7" s="272"/>
-      <c r="Y7" s="273"/>
+      <c r="T7" s="268"/>
+      <c r="U7" s="269"/>
+      <c r="V7" s="269"/>
+      <c r="W7" s="269"/>
+      <c r="X7" s="269"/>
+      <c r="Y7" s="270"/>
       <c r="Z7" s="46"/>
       <c r="AA7" s="46"/>
       <c r="AB7" s="46"/>
@@ -38047,11 +38047,11 @@
         <v>246</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="K10" s="321">
+      <c r="K10" s="326">
         <v>10</v>
       </c>
-      <c r="L10" s="322"/>
-      <c r="M10" s="323"/>
+      <c r="L10" s="327"/>
+      <c r="M10" s="328"/>
       <c r="N10" s="6" t="s">
         <v>253</v>
       </c>
@@ -39333,15 +39333,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -39983,15 +39983,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -40441,14 +40441,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="264"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -40494,12 +40494,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -40544,12 +40544,12 @@
       <c r="AU2" s="171"/>
     </row>
     <row r="3" spans="2:47" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -40607,39 +40607,39 @@
       <c r="L4" s="277"/>
       <c r="M4" s="277"/>
       <c r="N4" s="278"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="259"/>
-      <c r="AA4" s="259"/>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="259"/>
-      <c r="AF4" s="259"/>
-      <c r="AG4" s="259"/>
-      <c r="AH4" s="259"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="258"/>
-      <c r="AK4" s="259"/>
-      <c r="AL4" s="259"/>
-      <c r="AM4" s="259"/>
-      <c r="AN4" s="259"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="258"/>
-      <c r="AQ4" s="259"/>
-      <c r="AR4" s="259"/>
-      <c r="AS4" s="259"/>
-      <c r="AT4" s="259"/>
-      <c r="AU4" s="261"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="273"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="273"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="282"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -40701,46 +40701,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="262" t="s">
+      <c r="I6" s="283" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="262"/>
-      <c r="U6" s="262"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="262"/>
-      <c r="AO6" s="262"/>
-      <c r="AP6" s="262"/>
-      <c r="AQ6" s="262"/>
-      <c r="AR6" s="262"/>
-      <c r="AS6" s="262"/>
-      <c r="AT6" s="262"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="283"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="283"/>
+      <c r="Z6" s="283"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="283"/>
+      <c r="AE6" s="283"/>
+      <c r="AF6" s="283"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="283"/>
+      <c r="AJ6" s="283"/>
+      <c r="AK6" s="283"/>
+      <c r="AL6" s="283"/>
+      <c r="AM6" s="283"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -40801,15 +40801,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="270"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -40817,15 +40817,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="271" t="s">
+      <c r="AA8" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="273"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="270"/>
       <c r="AH8" s="116"/>
       <c r="AI8" s="116"/>
       <c r="AJ8" s="116"/>
@@ -40882,13 +40882,13 @@
       <c r="N10" s="117" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="271"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="273"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="269"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="269"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="270"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -40896,15 +40896,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="268" t="s">
+      <c r="AA10" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="270"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="266"/>
+      <c r="AF10" s="266"/>
+      <c r="AG10" s="267"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -40969,11 +40969,11 @@
       <c r="I12" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="271">
+      <c r="L12" s="268">
         <v>10</v>
       </c>
-      <c r="M12" s="272"/>
-      <c r="N12" s="273"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="270"/>
       <c r="O12" s="6" t="s">
         <v>231</v>
       </c>
@@ -41074,14 +41074,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="265" t="s">
+      <c r="R14" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="264"/>
       <c r="X14" s="36" t="s">
         <v>122</v>
       </c>
@@ -41089,12 +41089,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="265" t="s">
+      <c r="AC14" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="266"/>
-      <c r="AE14" s="266"/>
-      <c r="AF14" s="267"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="264"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -41683,53 +41683,53 @@
       <c r="B31" s="213">
         <v>1</v>
       </c>
-      <c r="C31" s="255" t="s">
+      <c r="C31" s="279" t="s">
         <v>236</v>
       </c>
-      <c r="D31" s="256"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="256"/>
-      <c r="M31" s="256"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
-      <c r="R31" s="256"/>
-      <c r="S31" s="256"/>
-      <c r="T31" s="256"/>
-      <c r="U31" s="256"/>
-      <c r="V31" s="256"/>
-      <c r="W31" s="256"/>
-      <c r="X31" s="256"/>
-      <c r="Y31" s="256"/>
-      <c r="Z31" s="256"/>
-      <c r="AA31" s="256"/>
-      <c r="AB31" s="256"/>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="256"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="256"/>
-      <c r="AH31" s="256"/>
-      <c r="AI31" s="256"/>
-      <c r="AJ31" s="256"/>
-      <c r="AK31" s="256"/>
-      <c r="AL31" s="256"/>
-      <c r="AM31" s="256"/>
-      <c r="AN31" s="256"/>
-      <c r="AO31" s="256"/>
-      <c r="AP31" s="256"/>
-      <c r="AQ31" s="256"/>
-      <c r="AR31" s="256"/>
-      <c r="AS31" s="256"/>
-      <c r="AT31" s="256"/>
-      <c r="AU31" s="257"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="280"/>
+      <c r="Q31" s="280"/>
+      <c r="R31" s="280"/>
+      <c r="S31" s="280"/>
+      <c r="T31" s="280"/>
+      <c r="U31" s="280"/>
+      <c r="V31" s="280"/>
+      <c r="W31" s="280"/>
+      <c r="X31" s="280"/>
+      <c r="Y31" s="280"/>
+      <c r="Z31" s="280"/>
+      <c r="AA31" s="280"/>
+      <c r="AB31" s="280"/>
+      <c r="AC31" s="280"/>
+      <c r="AD31" s="280"/>
+      <c r="AE31" s="280"/>
+      <c r="AF31" s="280"/>
+      <c r="AG31" s="280"/>
+      <c r="AH31" s="280"/>
+      <c r="AI31" s="280"/>
+      <c r="AJ31" s="280"/>
+      <c r="AK31" s="280"/>
+      <c r="AL31" s="280"/>
+      <c r="AM31" s="280"/>
+      <c r="AN31" s="280"/>
+      <c r="AO31" s="280"/>
+      <c r="AP31" s="280"/>
+      <c r="AQ31" s="280"/>
+      <c r="AR31" s="280"/>
+      <c r="AS31" s="280"/>
+      <c r="AT31" s="280"/>
+      <c r="AU31" s="281"/>
     </row>
     <row r="32" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="213">
@@ -42478,6 +42478,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C31:AU31"/>
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AP4:AU4"/>
+    <mergeCell ref="AD4:AI4"/>
+    <mergeCell ref="I6:AT6"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
     <mergeCell ref="B1:G3"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
@@ -42489,13 +42496,6 @@
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="O10:U10"/>
     <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C31:AU31"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AP4:AU4"/>
-    <mergeCell ref="AD4:AI4"/>
-    <mergeCell ref="I6:AT6"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
@@ -42513,7 +42513,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -42531,15 +42531,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -43157,14 +43157,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="248" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="245"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="250"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -43200,12 +43200,12 @@
       <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -43242,12 +43242,12 @@
       <c r="AM2" s="12"/>
     </row>
     <row r="3" spans="2:39" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="243"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="245"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="250"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -43404,15 +43404,15 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
-      <c r="AF6" s="279" t="s">
+      <c r="AF6" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="AG6" s="280"/>
-      <c r="AH6" s="280"/>
-      <c r="AI6" s="280"/>
-      <c r="AJ6" s="280"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="281"/>
+      <c r="AG6" s="285"/>
+      <c r="AH6" s="285"/>
+      <c r="AI6" s="285"/>
+      <c r="AJ6" s="285"/>
+      <c r="AK6" s="285"/>
+      <c r="AL6" s="286"/>
       <c r="AM6" s="12"/>
     </row>
     <row r="7" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -43438,13 +43438,13 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-      <c r="AF7" s="282"/>
-      <c r="AG7" s="283"/>
-      <c r="AH7" s="283"/>
-      <c r="AI7" s="283"/>
-      <c r="AJ7" s="283"/>
-      <c r="AK7" s="283"/>
-      <c r="AL7" s="284"/>
+      <c r="AF7" s="287"/>
+      <c r="AG7" s="288"/>
+      <c r="AH7" s="288"/>
+      <c r="AI7" s="288"/>
+      <c r="AJ7" s="288"/>
+      <c r="AK7" s="288"/>
+      <c r="AL7" s="289"/>
       <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43480,13 +43480,13 @@
       <c r="AC8" s="51"/>
       <c r="AD8" s="51"/>
       <c r="AE8" s="51"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="283"/>
-      <c r="AH8" s="283"/>
-      <c r="AI8" s="283"/>
-      <c r="AJ8" s="283"/>
-      <c r="AK8" s="283"/>
-      <c r="AL8" s="284"/>
+      <c r="AF8" s="287"/>
+      <c r="AG8" s="288"/>
+      <c r="AH8" s="288"/>
+      <c r="AI8" s="288"/>
+      <c r="AJ8" s="288"/>
+      <c r="AK8" s="288"/>
+      <c r="AL8" s="289"/>
       <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43527,13 +43527,13 @@
       <c r="AC9" s="51"/>
       <c r="AD9" s="51"/>
       <c r="AE9" s="51"/>
-      <c r="AF9" s="282"/>
-      <c r="AG9" s="283"/>
-      <c r="AH9" s="283"/>
-      <c r="AI9" s="283"/>
-      <c r="AJ9" s="283"/>
-      <c r="AK9" s="283"/>
-      <c r="AL9" s="284"/>
+      <c r="AF9" s="287"/>
+      <c r="AG9" s="288"/>
+      <c r="AH9" s="288"/>
+      <c r="AI9" s="288"/>
+      <c r="AJ9" s="288"/>
+      <c r="AK9" s="288"/>
+      <c r="AL9" s="289"/>
       <c r="AM9" s="12"/>
     </row>
     <row r="10" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43572,13 +43572,13 @@
       <c r="AC10" s="51"/>
       <c r="AD10" s="51"/>
       <c r="AE10" s="51"/>
-      <c r="AF10" s="282"/>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="283"/>
-      <c r="AI10" s="283"/>
-      <c r="AJ10" s="283"/>
-      <c r="AK10" s="283"/>
-      <c r="AL10" s="284"/>
+      <c r="AF10" s="287"/>
+      <c r="AG10" s="288"/>
+      <c r="AH10" s="288"/>
+      <c r="AI10" s="288"/>
+      <c r="AJ10" s="288"/>
+      <c r="AK10" s="288"/>
+      <c r="AL10" s="289"/>
       <c r="AM10" s="12"/>
     </row>
     <row r="11" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43619,13 +43619,13 @@
       <c r="AC11" s="51"/>
       <c r="AD11" s="51"/>
       <c r="AE11" s="51"/>
-      <c r="AF11" s="282"/>
-      <c r="AG11" s="283"/>
-      <c r="AH11" s="283"/>
-      <c r="AI11" s="283"/>
-      <c r="AJ11" s="283"/>
-      <c r="AK11" s="283"/>
-      <c r="AL11" s="284"/>
+      <c r="AF11" s="287"/>
+      <c r="AG11" s="288"/>
+      <c r="AH11" s="288"/>
+      <c r="AI11" s="288"/>
+      <c r="AJ11" s="288"/>
+      <c r="AK11" s="288"/>
+      <c r="AL11" s="289"/>
       <c r="AM11" s="12"/>
     </row>
     <row r="12" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -43660,13 +43660,13 @@
       <c r="AC12" s="51"/>
       <c r="AD12" s="51"/>
       <c r="AE12" s="51"/>
-      <c r="AF12" s="285"/>
-      <c r="AG12" s="286"/>
-      <c r="AH12" s="286"/>
-      <c r="AI12" s="286"/>
-      <c r="AJ12" s="286"/>
-      <c r="AK12" s="286"/>
-      <c r="AL12" s="287"/>
+      <c r="AF12" s="290"/>
+      <c r="AG12" s="291"/>
+      <c r="AH12" s="291"/>
+      <c r="AI12" s="291"/>
+      <c r="AJ12" s="291"/>
+      <c r="AK12" s="291"/>
+      <c r="AL12" s="292"/>
       <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="2:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -44231,11 +44231,11 @@
       <c r="M26" s="161"/>
       <c r="N26" s="161"/>
       <c r="O26" s="51"/>
-      <c r="P26" s="288" t="s">
+      <c r="P26" s="293" t="s">
         <v>150</v>
       </c>
-      <c r="Q26" s="289"/>
-      <c r="R26" s="290"/>
+      <c r="Q26" s="294"/>
+      <c r="R26" s="295"/>
       <c r="T26" s="51"/>
       <c r="U26" s="51" t="s">
         <v>147</v>
@@ -45061,15 +45061,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="257" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="254"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="259"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
@@ -45763,14 +45763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="260" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="264"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
       <c r="J1" s="3"/>
@@ -45816,12 +45816,12 @@
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="250"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8"/>
@@ -45866,12 +45866,12 @@
       <c r="AU2" s="171"/>
     </row>
     <row r="3" spans="2:47" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="B3" s="251"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="253"/>
       <c r="H3" s="13"/>
       <c r="I3" s="186"/>
       <c r="J3" s="13"/>
@@ -45915,13 +45915,13 @@
     </row>
     <row r="4" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="174"/>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="296" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="292"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="297"/>
       <c r="H4" s="276"/>
       <c r="I4" s="277"/>
       <c r="J4" s="277"/>
@@ -45929,39 +45929,39 @@
       <c r="L4" s="277"/>
       <c r="M4" s="277"/>
       <c r="N4" s="278"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="259"/>
-      <c r="Q4" s="259"/>
-      <c r="R4" s="259"/>
-      <c r="S4" s="259"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="259"/>
-      <c r="W4" s="259"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="259"/>
-      <c r="AA4" s="259"/>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="258"/>
-      <c r="AE4" s="259"/>
-      <c r="AF4" s="259"/>
-      <c r="AG4" s="259"/>
-      <c r="AH4" s="259"/>
-      <c r="AI4" s="260"/>
-      <c r="AJ4" s="258"/>
-      <c r="AK4" s="259"/>
-      <c r="AL4" s="259"/>
-      <c r="AM4" s="259"/>
-      <c r="AN4" s="259"/>
-      <c r="AO4" s="260"/>
-      <c r="AP4" s="258"/>
-      <c r="AQ4" s="259"/>
-      <c r="AR4" s="259"/>
-      <c r="AS4" s="259"/>
-      <c r="AT4" s="259"/>
-      <c r="AU4" s="261"/>
+      <c r="O4" s="271"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="272"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="273"/>
+      <c r="U4" s="271"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="273"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="272"/>
+      <c r="AA4" s="272"/>
+      <c r="AB4" s="272"/>
+      <c r="AC4" s="273"/>
+      <c r="AD4" s="271"/>
+      <c r="AE4" s="272"/>
+      <c r="AF4" s="272"/>
+      <c r="AG4" s="272"/>
+      <c r="AH4" s="272"/>
+      <c r="AI4" s="273"/>
+      <c r="AJ4" s="271"/>
+      <c r="AK4" s="272"/>
+      <c r="AL4" s="272"/>
+      <c r="AM4" s="272"/>
+      <c r="AN4" s="272"/>
+      <c r="AO4" s="273"/>
+      <c r="AP4" s="271"/>
+      <c r="AQ4" s="272"/>
+      <c r="AR4" s="272"/>
+      <c r="AS4" s="272"/>
+      <c r="AT4" s="272"/>
+      <c r="AU4" s="282"/>
     </row>
     <row r="5" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
@@ -46023,46 +46023,46 @@
       <c r="F6" s="11"/>
       <c r="G6" s="18"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="262" t="s">
+      <c r="I6" s="283" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="262"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="262"/>
-      <c r="M6" s="262"/>
-      <c r="N6" s="262"/>
-      <c r="O6" s="262"/>
-      <c r="P6" s="262"/>
-      <c r="Q6" s="262"/>
-      <c r="R6" s="262"/>
-      <c r="S6" s="262"/>
-      <c r="T6" s="262"/>
-      <c r="U6" s="262"/>
-      <c r="V6" s="262"/>
-      <c r="W6" s="262"/>
-      <c r="X6" s="262"/>
-      <c r="Y6" s="262"/>
-      <c r="Z6" s="262"/>
-      <c r="AA6" s="262"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="262"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="262"/>
-      <c r="AH6" s="262"/>
-      <c r="AI6" s="262"/>
-      <c r="AJ6" s="262"/>
-      <c r="AK6" s="262"/>
-      <c r="AL6" s="262"/>
-      <c r="AM6" s="262"/>
-      <c r="AN6" s="262"/>
-      <c r="AO6" s="262"/>
-      <c r="AP6" s="262"/>
-      <c r="AQ6" s="262"/>
-      <c r="AR6" s="262"/>
-      <c r="AS6" s="262"/>
-      <c r="AT6" s="262"/>
+      <c r="J6" s="283"/>
+      <c r="K6" s="283"/>
+      <c r="L6" s="283"/>
+      <c r="M6" s="283"/>
+      <c r="N6" s="283"/>
+      <c r="O6" s="283"/>
+      <c r="P6" s="283"/>
+      <c r="Q6" s="283"/>
+      <c r="R6" s="283"/>
+      <c r="S6" s="283"/>
+      <c r="T6" s="283"/>
+      <c r="U6" s="283"/>
+      <c r="V6" s="283"/>
+      <c r="W6" s="283"/>
+      <c r="X6" s="283"/>
+      <c r="Y6" s="283"/>
+      <c r="Z6" s="283"/>
+      <c r="AA6" s="283"/>
+      <c r="AB6" s="283"/>
+      <c r="AC6" s="283"/>
+      <c r="AD6" s="283"/>
+      <c r="AE6" s="283"/>
+      <c r="AF6" s="283"/>
+      <c r="AG6" s="283"/>
+      <c r="AH6" s="283"/>
+      <c r="AI6" s="283"/>
+      <c r="AJ6" s="283"/>
+      <c r="AK6" s="283"/>
+      <c r="AL6" s="283"/>
+      <c r="AM6" s="283"/>
+      <c r="AN6" s="283"/>
+      <c r="AO6" s="283"/>
+      <c r="AP6" s="283"/>
+      <c r="AQ6" s="283"/>
+      <c r="AR6" s="283"/>
+      <c r="AS6" s="283"/>
+      <c r="AT6" s="283"/>
       <c r="AU6" s="12"/>
     </row>
     <row r="7" spans="2:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -46115,15 +46115,15 @@
       <c r="N8" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="O8" s="268" t="s">
+      <c r="O8" s="265" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="269"/>
-      <c r="R8" s="269"/>
-      <c r="S8" s="269"/>
-      <c r="T8" s="269"/>
-      <c r="U8" s="270"/>
+      <c r="P8" s="266"/>
+      <c r="Q8" s="266"/>
+      <c r="R8" s="266"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="46"/>
       <c r="W8" s="46"/>
       <c r="X8" s="46"/>
@@ -46131,15 +46131,15 @@
       <c r="Z8" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="271" t="s">
+      <c r="AA8" s="268" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="272"/>
-      <c r="AF8" s="272"/>
-      <c r="AG8" s="273"/>
+      <c r="AB8" s="269"/>
+      <c r="AC8" s="269"/>
+      <c r="AD8" s="269"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="269"/>
+      <c r="AG8" s="270"/>
       <c r="AH8" s="116"/>
       <c r="AI8" s="116"/>
       <c r="AJ8" s="116"/>
@@ -46196,13 +46196,13 @@
       <c r="N10" s="118" t="s">
         <v>215</v>
       </c>
-      <c r="O10" s="271"/>
-      <c r="P10" s="272"/>
-      <c r="Q10" s="272"/>
-      <c r="R10" s="272"/>
-      <c r="S10" s="272"/>
-      <c r="T10" s="272"/>
-      <c r="U10" s="273"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="269"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="269"/>
+      <c r="S10" s="269"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="270"/>
       <c r="V10" s="46"/>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -46210,15 +46210,15 @@
       <c r="Z10" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="268" t="s">
+      <c r="AA10" s="265" t="s">
         <v>89</v>
       </c>
-      <c r="AB10" s="269"/>
-      <c r="AC10" s="269"/>
-      <c r="AD10" s="269"/>
-      <c r="AE10" s="269"/>
-      <c r="AF10" s="269"/>
-      <c r="AG10" s="270"/>
+      <c r="AB10" s="266"/>
+      <c r="AC10" s="266"/>
+      <c r="AD10" s="266"/>
+      <c r="AE10" s="266"/>
+      <c r="AF10" s="266"/>
+      <c r="AG10" s="267"/>
       <c r="AH10" s="46"/>
       <c r="AI10" s="46"/>
       <c r="AJ10" s="46"/>
@@ -46283,11 +46283,11 @@
       <c r="I12" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="L12" s="271">
+      <c r="L12" s="268">
         <v>10</v>
       </c>
-      <c r="M12" s="272"/>
-      <c r="N12" s="273"/>
+      <c r="M12" s="269"/>
+      <c r="N12" s="270"/>
       <c r="O12" s="6" t="s">
         <v>227</v>
       </c>
@@ -46388,14 +46388,14 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="35"/>
-      <c r="R14" s="265" t="s">
+      <c r="R14" s="262" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="266"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="266"/>
-      <c r="V14" s="266"/>
-      <c r="W14" s="267"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="264"/>
       <c r="X14" s="36" t="s">
         <v>132</v>
       </c>
@@ -46403,12 +46403,12 @@
       <c r="Z14" s="36"/>
       <c r="AA14" s="36"/>
       <c r="AB14" s="36"/>
-      <c r="AC14" s="265" t="s">
+      <c r="AC14" s="262" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" s="266"/>
-      <c r="AE14" s="266"/>
-      <c r="AF14" s="267"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="264"/>
       <c r="AG14" s="142" t="s">
         <v>124</v>
       </c>
@@ -47840,16 +47840,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AI4"/>
-    <mergeCell ref="AJ4:AO4"/>
-    <mergeCell ref="AP4:AU4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="I6:AT6"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O8:U8"/>
     <mergeCell ref="AA8:AG8"/>
@@ -47857,6 +47847,16 @@
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="AC14:AF14"/>
     <mergeCell ref="O10:U10"/>
+    <mergeCell ref="AJ4:AO4"/>
+    <mergeCell ref="AP4:AU4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="I6:AT6"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AI4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AS1" location="'Main-not login'!A1" display="đăng xuất"/>
